--- a/BackTest/2020-01-25 BackTest BSV.xlsx
+++ b/BackTest/2020-01-25 BackTest BSV.xlsx
@@ -451,7 +451,7 @@
         <v>-59.11294387999995</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-159.4939577399999</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>-159.5921577399999</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>-144.9857572599999</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>-343.0841572599999</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>-343.0841572599999</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>-558.7759152499999</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>-558.7759152499999</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>-722.9276152499999</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>-507.3306152499999</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>-364.45705227</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>-423.48425227</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>-598.08425084</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>-623.65392293</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>-561.88722293</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>-559.78397602</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>-597.94417602</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>-603.67797602</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>-612.5199760199999</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>-612.5199760199999</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>-530.82697602</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>-530.82697602</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>-548.1345760199999</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>-597.5395760199999</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>-662.4672760199999</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>-773.2633621599998</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>-525.6391621599998</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>-523.6921593699998</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>-593.1082593699998</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>-714.3017593699998</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -6952,7 +6952,7 @@
         <v>-4315.24823718</v>
       </c>
       <c r="H199" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
@@ -6985,7 +6985,7 @@
         <v>-4339.69333718</v>
       </c>
       <c r="H200" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
@@ -7018,7 +7018,7 @@
         <v>-4339.69333718</v>
       </c>
       <c r="H201" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
@@ -7051,7 +7051,7 @@
         <v>-4376.73543558</v>
       </c>
       <c r="H202" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
@@ -10483,7 +10483,7 @@
         <v>-3851.024310789998</v>
       </c>
       <c r="H306" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
@@ -11077,7 +11077,7 @@
         <v>-3872.867521859997</v>
       </c>
       <c r="H324" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
@@ -11110,7 +11110,7 @@
         <v>-3866.389221859997</v>
       </c>
       <c r="H325" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
@@ -11143,7 +11143,7 @@
         <v>-3873.971121859997</v>
       </c>
       <c r="H326" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
@@ -11176,7 +11176,7 @@
         <v>-3858.031021859998</v>
       </c>
       <c r="H327" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
@@ -11209,7 +11209,7 @@
         <v>-3865.230821859997</v>
       </c>
       <c r="H328" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
@@ -11242,7 +11242,7 @@
         <v>-3865.230821859997</v>
       </c>
       <c r="H329" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
@@ -11275,7 +11275,7 @@
         <v>-3865.230821859997</v>
       </c>
       <c r="H330" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
@@ -11308,7 +11308,7 @@
         <v>-3856.918321859997</v>
       </c>
       <c r="H331" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
@@ -11341,7 +11341,7 @@
         <v>-3741.138121859997</v>
       </c>
       <c r="H332" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
@@ -11374,7 +11374,7 @@
         <v>-3629.335021859997</v>
       </c>
       <c r="H333" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
@@ -11407,7 +11407,7 @@
         <v>-3624.434506179997</v>
       </c>
       <c r="H334" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
@@ -11440,7 +11440,7 @@
         <v>-3624.434506179997</v>
       </c>
       <c r="H335" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
@@ -11473,7 +11473,7 @@
         <v>-3624.434506179997</v>
       </c>
       <c r="H336" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
@@ -11506,7 +11506,7 @@
         <v>-3624.434506179997</v>
       </c>
       <c r="H337" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
@@ -11539,7 +11539,7 @@
         <v>-3624.434506179997</v>
       </c>
       <c r="H338" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
@@ -11572,7 +11572,7 @@
         <v>-3624.434506179997</v>
       </c>
       <c r="H339" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
@@ -11605,7 +11605,7 @@
         <v>-3624.434506179997</v>
       </c>
       <c r="H340" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
@@ -21505,11 +21505,17 @@
         <v>-10704.5310299</v>
       </c>
       <c r="H640" t="n">
-        <v>0</v>
-      </c>
-      <c r="I640" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I640" t="n">
+        <v>288000</v>
+      </c>
       <c r="J640" t="inlineStr"/>
-      <c r="K640" t="inlineStr"/>
+      <c r="K640" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L640" t="n">
         <v>1</v>
       </c>
@@ -21538,11 +21544,17 @@
         <v>-10603.71705512</v>
       </c>
       <c r="H641" t="n">
-        <v>0</v>
-      </c>
-      <c r="I641" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I641" t="n">
+        <v>288300</v>
+      </c>
       <c r="J641" t="inlineStr"/>
-      <c r="K641" t="inlineStr"/>
+      <c r="K641" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L641" t="n">
         <v>1</v>
       </c>
@@ -21571,11 +21583,17 @@
         <v>-10592.94365512</v>
       </c>
       <c r="H642" t="n">
-        <v>0</v>
-      </c>
-      <c r="I642" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I642" t="n">
+        <v>288400</v>
+      </c>
       <c r="J642" t="inlineStr"/>
-      <c r="K642" t="inlineStr"/>
+      <c r="K642" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L642" t="n">
         <v>1</v>
       </c>
@@ -21604,11 +21622,17 @@
         <v>-10533.83065512</v>
       </c>
       <c r="H643" t="n">
-        <v>0</v>
-      </c>
-      <c r="I643" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I643" t="n">
+        <v>289000</v>
+      </c>
       <c r="J643" t="inlineStr"/>
-      <c r="K643" t="inlineStr"/>
+      <c r="K643" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L643" t="n">
         <v>1</v>
       </c>
@@ -21637,11 +21661,17 @@
         <v>-10323.25635609</v>
       </c>
       <c r="H644" t="n">
-        <v>0</v>
-      </c>
-      <c r="I644" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I644" t="n">
+        <v>289500</v>
+      </c>
       <c r="J644" t="inlineStr"/>
-      <c r="K644" t="inlineStr"/>
+      <c r="K644" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L644" t="n">
         <v>1</v>
       </c>
@@ -21670,11 +21700,17 @@
         <v>-10402.40505609</v>
       </c>
       <c r="H645" t="n">
-        <v>0</v>
-      </c>
-      <c r="I645" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I645" t="n">
+        <v>289800</v>
+      </c>
       <c r="J645" t="inlineStr"/>
-      <c r="K645" t="inlineStr"/>
+      <c r="K645" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L645" t="n">
         <v>1</v>
       </c>
@@ -21703,11 +21739,17 @@
         <v>-10334.64525609</v>
       </c>
       <c r="H646" t="n">
-        <v>0</v>
-      </c>
-      <c r="I646" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I646" t="n">
+        <v>289600</v>
+      </c>
       <c r="J646" t="inlineStr"/>
-      <c r="K646" t="inlineStr"/>
+      <c r="K646" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L646" t="n">
         <v>1</v>
       </c>
@@ -21736,11 +21778,17 @@
         <v>-10360.99125609</v>
       </c>
       <c r="H647" t="n">
-        <v>0</v>
-      </c>
-      <c r="I647" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I647" t="n">
+        <v>291000</v>
+      </c>
       <c r="J647" t="inlineStr"/>
-      <c r="K647" t="inlineStr"/>
+      <c r="K647" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L647" t="n">
         <v>1</v>
       </c>
@@ -21769,11 +21817,17 @@
         <v>-10176.2611785</v>
       </c>
       <c r="H648" t="n">
-        <v>0</v>
-      </c>
-      <c r="I648" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I648" t="n">
+        <v>290900</v>
+      </c>
       <c r="J648" t="inlineStr"/>
-      <c r="K648" t="inlineStr"/>
+      <c r="K648" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L648" t="n">
         <v>1</v>
       </c>
@@ -21802,11 +21856,17 @@
         <v>-10205.2596785</v>
       </c>
       <c r="H649" t="n">
-        <v>0</v>
-      </c>
-      <c r="I649" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I649" t="n">
+        <v>291900</v>
+      </c>
       <c r="J649" t="inlineStr"/>
-      <c r="K649" t="inlineStr"/>
+      <c r="K649" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L649" t="n">
         <v>1</v>
       </c>
@@ -21835,11 +21895,17 @@
         <v>-10205.2596785</v>
       </c>
       <c r="H650" t="n">
-        <v>0</v>
-      </c>
-      <c r="I650" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I650" t="n">
+        <v>291600</v>
+      </c>
       <c r="J650" t="inlineStr"/>
-      <c r="K650" t="inlineStr"/>
+      <c r="K650" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L650" t="n">
         <v>1</v>
       </c>
@@ -21868,11 +21934,17 @@
         <v>-10234.7163785</v>
       </c>
       <c r="H651" t="n">
-        <v>0</v>
-      </c>
-      <c r="I651" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I651" t="n">
+        <v>291600</v>
+      </c>
       <c r="J651" t="inlineStr"/>
-      <c r="K651" t="inlineStr"/>
+      <c r="K651" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L651" t="n">
         <v>1</v>
       </c>
@@ -21901,11 +21973,17 @@
         <v>-10161.43013226</v>
       </c>
       <c r="H652" t="n">
-        <v>0</v>
-      </c>
-      <c r="I652" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I652" t="n">
+        <v>291300</v>
+      </c>
       <c r="J652" t="inlineStr"/>
-      <c r="K652" t="inlineStr"/>
+      <c r="K652" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L652" t="n">
         <v>1</v>
       </c>
@@ -21938,7 +22016,11 @@
       </c>
       <c r="I653" t="inlineStr"/>
       <c r="J653" t="inlineStr"/>
-      <c r="K653" t="inlineStr"/>
+      <c r="K653" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L653" t="n">
         <v>1</v>
       </c>
@@ -21971,7 +22053,11 @@
       </c>
       <c r="I654" t="inlineStr"/>
       <c r="J654" t="inlineStr"/>
-      <c r="K654" t="inlineStr"/>
+      <c r="K654" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L654" t="n">
         <v>1</v>
       </c>
@@ -22004,7 +22090,11 @@
       </c>
       <c r="I655" t="inlineStr"/>
       <c r="J655" t="inlineStr"/>
-      <c r="K655" t="inlineStr"/>
+      <c r="K655" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L655" t="n">
         <v>1</v>
       </c>
@@ -22037,7 +22127,11 @@
       </c>
       <c r="I656" t="inlineStr"/>
       <c r="J656" t="inlineStr"/>
-      <c r="K656" t="inlineStr"/>
+      <c r="K656" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L656" t="n">
         <v>1</v>
       </c>
@@ -22070,7 +22164,11 @@
       </c>
       <c r="I657" t="inlineStr"/>
       <c r="J657" t="inlineStr"/>
-      <c r="K657" t="inlineStr"/>
+      <c r="K657" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L657" t="n">
         <v>1</v>
       </c>
@@ -22103,7 +22201,11 @@
       </c>
       <c r="I658" t="inlineStr"/>
       <c r="J658" t="inlineStr"/>
-      <c r="K658" t="inlineStr"/>
+      <c r="K658" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L658" t="n">
         <v>1</v>
       </c>
@@ -22136,7 +22238,11 @@
       </c>
       <c r="I659" t="inlineStr"/>
       <c r="J659" t="inlineStr"/>
-      <c r="K659" t="inlineStr"/>
+      <c r="K659" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L659" t="n">
         <v>1</v>
       </c>
@@ -22169,7 +22275,11 @@
       </c>
       <c r="I660" t="inlineStr"/>
       <c r="J660" t="inlineStr"/>
-      <c r="K660" t="inlineStr"/>
+      <c r="K660" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L660" t="n">
         <v>1</v>
       </c>
@@ -22202,7 +22312,11 @@
       </c>
       <c r="I661" t="inlineStr"/>
       <c r="J661" t="inlineStr"/>
-      <c r="K661" t="inlineStr"/>
+      <c r="K661" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L661" t="n">
         <v>1</v>
       </c>
@@ -22235,7 +22349,11 @@
       </c>
       <c r="I662" t="inlineStr"/>
       <c r="J662" t="inlineStr"/>
-      <c r="K662" t="inlineStr"/>
+      <c r="K662" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L662" t="n">
         <v>1</v>
       </c>
@@ -22268,7 +22386,11 @@
       </c>
       <c r="I663" t="inlineStr"/>
       <c r="J663" t="inlineStr"/>
-      <c r="K663" t="inlineStr"/>
+      <c r="K663" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L663" t="n">
         <v>1</v>
       </c>
@@ -22301,7 +22423,11 @@
       </c>
       <c r="I664" t="inlineStr"/>
       <c r="J664" t="inlineStr"/>
-      <c r="K664" t="inlineStr"/>
+      <c r="K664" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L664" t="n">
         <v>1</v>
       </c>
@@ -22334,7 +22460,11 @@
       </c>
       <c r="I665" t="inlineStr"/>
       <c r="J665" t="inlineStr"/>
-      <c r="K665" t="inlineStr"/>
+      <c r="K665" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L665" t="n">
         <v>1</v>
       </c>
@@ -22367,7 +22497,11 @@
       </c>
       <c r="I666" t="inlineStr"/>
       <c r="J666" t="inlineStr"/>
-      <c r="K666" t="inlineStr"/>
+      <c r="K666" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L666" t="n">
         <v>1</v>
       </c>
@@ -22400,7 +22534,11 @@
       </c>
       <c r="I667" t="inlineStr"/>
       <c r="J667" t="inlineStr"/>
-      <c r="K667" t="inlineStr"/>
+      <c r="K667" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L667" t="n">
         <v>1</v>
       </c>
@@ -22433,7 +22571,11 @@
       </c>
       <c r="I668" t="inlineStr"/>
       <c r="J668" t="inlineStr"/>
-      <c r="K668" t="inlineStr"/>
+      <c r="K668" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L668" t="n">
         <v>1</v>
       </c>
@@ -22466,7 +22608,11 @@
       </c>
       <c r="I669" t="inlineStr"/>
       <c r="J669" t="inlineStr"/>
-      <c r="K669" t="inlineStr"/>
+      <c r="K669" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L669" t="n">
         <v>1</v>
       </c>
@@ -22499,7 +22645,11 @@
       </c>
       <c r="I670" t="inlineStr"/>
       <c r="J670" t="inlineStr"/>
-      <c r="K670" t="inlineStr"/>
+      <c r="K670" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L670" t="n">
         <v>1</v>
       </c>
@@ -22532,7 +22682,11 @@
       </c>
       <c r="I671" t="inlineStr"/>
       <c r="J671" t="inlineStr"/>
-      <c r="K671" t="inlineStr"/>
+      <c r="K671" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L671" t="n">
         <v>1</v>
       </c>
@@ -22561,11 +22715,17 @@
         <v>-10441.46053336</v>
       </c>
       <c r="H672" t="n">
-        <v>0</v>
-      </c>
-      <c r="I672" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I672" t="n">
+        <v>293000</v>
+      </c>
       <c r="J672" t="inlineStr"/>
-      <c r="K672" t="inlineStr"/>
+      <c r="K672" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L672" t="n">
         <v>1</v>
       </c>
@@ -22594,11 +22754,17 @@
         <v>-10441.46053336</v>
       </c>
       <c r="H673" t="n">
-        <v>0</v>
-      </c>
-      <c r="I673" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I673" t="n">
+        <v>292300</v>
+      </c>
       <c r="J673" t="inlineStr"/>
-      <c r="K673" t="inlineStr"/>
+      <c r="K673" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L673" t="n">
         <v>1</v>
       </c>
@@ -22627,11 +22793,17 @@
         <v>-10441.2898849</v>
       </c>
       <c r="H674" t="n">
-        <v>0</v>
-      </c>
-      <c r="I674" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I674" t="n">
+        <v>292300</v>
+      </c>
       <c r="J674" t="inlineStr"/>
-      <c r="K674" t="inlineStr"/>
+      <c r="K674" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L674" t="n">
         <v>1</v>
       </c>
@@ -22660,11 +22832,17 @@
         <v>-10458.6918849</v>
       </c>
       <c r="H675" t="n">
-        <v>0</v>
-      </c>
-      <c r="I675" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I675" t="n">
+        <v>293000</v>
+      </c>
       <c r="J675" t="inlineStr"/>
-      <c r="K675" t="inlineStr"/>
+      <c r="K675" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L675" t="n">
         <v>1</v>
       </c>
@@ -22693,11 +22871,17 @@
         <v>-10458.6918849</v>
       </c>
       <c r="H676" t="n">
-        <v>0</v>
-      </c>
-      <c r="I676" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I676" t="n">
+        <v>292900</v>
+      </c>
       <c r="J676" t="inlineStr"/>
-      <c r="K676" t="inlineStr"/>
+      <c r="K676" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L676" t="n">
         <v>1</v>
       </c>
@@ -22726,11 +22910,17 @@
         <v>-10463.0629849</v>
       </c>
       <c r="H677" t="n">
-        <v>0</v>
-      </c>
-      <c r="I677" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I677" t="n">
+        <v>292900</v>
+      </c>
       <c r="J677" t="inlineStr"/>
-      <c r="K677" t="inlineStr"/>
+      <c r="K677" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L677" t="n">
         <v>1</v>
       </c>
@@ -22759,11 +22949,17 @@
         <v>-10463.0629849</v>
       </c>
       <c r="H678" t="n">
-        <v>0</v>
-      </c>
-      <c r="I678" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I678" t="n">
+        <v>292300</v>
+      </c>
       <c r="J678" t="inlineStr"/>
-      <c r="K678" t="inlineStr"/>
+      <c r="K678" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L678" t="n">
         <v>1</v>
       </c>
@@ -22792,11 +22988,17 @@
         <v>-10460.1169849</v>
       </c>
       <c r="H679" t="n">
-        <v>0</v>
-      </c>
-      <c r="I679" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I679" t="n">
+        <v>292300</v>
+      </c>
       <c r="J679" t="inlineStr"/>
-      <c r="K679" t="inlineStr"/>
+      <c r="K679" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L679" t="n">
         <v>1</v>
       </c>
@@ -22825,11 +23027,17 @@
         <v>-10460.1169849</v>
       </c>
       <c r="H680" t="n">
-        <v>0</v>
-      </c>
-      <c r="I680" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I680" t="n">
+        <v>292700</v>
+      </c>
       <c r="J680" t="inlineStr"/>
-      <c r="K680" t="inlineStr"/>
+      <c r="K680" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L680" t="n">
         <v>1</v>
       </c>
@@ -22858,11 +23066,17 @@
         <v>-10482.0146849</v>
       </c>
       <c r="H681" t="n">
-        <v>0</v>
-      </c>
-      <c r="I681" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I681" t="n">
+        <v>292700</v>
+      </c>
       <c r="J681" t="inlineStr"/>
-      <c r="K681" t="inlineStr"/>
+      <c r="K681" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L681" t="n">
         <v>1</v>
       </c>
@@ -22891,11 +23105,17 @@
         <v>-10483.0483849</v>
       </c>
       <c r="H682" t="n">
-        <v>0</v>
-      </c>
-      <c r="I682" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I682" t="n">
+        <v>292600</v>
+      </c>
       <c r="J682" t="inlineStr"/>
-      <c r="K682" t="inlineStr"/>
+      <c r="K682" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L682" t="n">
         <v>1</v>
       </c>
@@ -22924,11 +23144,17 @@
         <v>-10460.7574849</v>
       </c>
       <c r="H683" t="n">
-        <v>0</v>
-      </c>
-      <c r="I683" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I683" t="n">
+        <v>292100</v>
+      </c>
       <c r="J683" t="inlineStr"/>
-      <c r="K683" t="inlineStr"/>
+      <c r="K683" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L683" t="n">
         <v>1</v>
       </c>
@@ -22957,11 +23183,17 @@
         <v>-10379.7568849</v>
       </c>
       <c r="H684" t="n">
-        <v>0</v>
-      </c>
-      <c r="I684" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I684" t="n">
+        <v>292200</v>
+      </c>
       <c r="J684" t="inlineStr"/>
-      <c r="K684" t="inlineStr"/>
+      <c r="K684" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L684" t="n">
         <v>1</v>
       </c>
@@ -22990,11 +23222,17 @@
         <v>-10379.7568849</v>
       </c>
       <c r="H685" t="n">
-        <v>0</v>
-      </c>
-      <c r="I685" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I685" t="n">
+        <v>292700</v>
+      </c>
       <c r="J685" t="inlineStr"/>
-      <c r="K685" t="inlineStr"/>
+      <c r="K685" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L685" t="n">
         <v>1</v>
       </c>
@@ -23023,11 +23261,17 @@
         <v>-10260.9901849</v>
       </c>
       <c r="H686" t="n">
-        <v>0</v>
-      </c>
-      <c r="I686" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I686" t="n">
+        <v>292700</v>
+      </c>
       <c r="J686" t="inlineStr"/>
-      <c r="K686" t="inlineStr"/>
+      <c r="K686" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L686" t="n">
         <v>1</v>
       </c>
@@ -23056,11 +23300,17 @@
         <v>-10257.4365849</v>
       </c>
       <c r="H687" t="n">
-        <v>0</v>
-      </c>
-      <c r="I687" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I687" t="n">
+        <v>293000</v>
+      </c>
       <c r="J687" t="inlineStr"/>
-      <c r="K687" t="inlineStr"/>
+      <c r="K687" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L687" t="n">
         <v>1</v>
       </c>
@@ -23089,11 +23339,17 @@
         <v>-10162.0805849</v>
       </c>
       <c r="H688" t="n">
-        <v>0</v>
-      </c>
-      <c r="I688" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I688" t="n">
+        <v>293500</v>
+      </c>
       <c r="J688" t="inlineStr"/>
-      <c r="K688" t="inlineStr"/>
+      <c r="K688" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L688" t="n">
         <v>1</v>
       </c>
@@ -23122,11 +23378,17 @@
         <v>-10218.9232849</v>
       </c>
       <c r="H689" t="n">
-        <v>0</v>
-      </c>
-      <c r="I689" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I689" t="n">
+        <v>294000</v>
+      </c>
       <c r="J689" t="inlineStr"/>
-      <c r="K689" t="inlineStr"/>
+      <c r="K689" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L689" t="n">
         <v>1</v>
       </c>
@@ -23155,11 +23417,17 @@
         <v>-10326.3125849</v>
       </c>
       <c r="H690" t="n">
-        <v>0</v>
-      </c>
-      <c r="I690" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I690" t="n">
+        <v>293200</v>
+      </c>
       <c r="J690" t="inlineStr"/>
-      <c r="K690" t="inlineStr"/>
+      <c r="K690" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L690" t="n">
         <v>1</v>
       </c>
@@ -23188,11 +23456,17 @@
         <v>-10411.8505849</v>
       </c>
       <c r="H691" t="n">
-        <v>0</v>
-      </c>
-      <c r="I691" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I691" t="n">
+        <v>293100</v>
+      </c>
       <c r="J691" t="inlineStr"/>
-      <c r="K691" t="inlineStr"/>
+      <c r="K691" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L691" t="n">
         <v>1</v>
       </c>
@@ -23221,11 +23495,17 @@
         <v>-10411.8505849</v>
       </c>
       <c r="H692" t="n">
-        <v>0</v>
-      </c>
-      <c r="I692" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I692" t="n">
+        <v>293000</v>
+      </c>
       <c r="J692" t="inlineStr"/>
-      <c r="K692" t="inlineStr"/>
+      <c r="K692" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L692" t="n">
         <v>1</v>
       </c>
@@ -23254,11 +23534,17 @@
         <v>-10411.8505849</v>
       </c>
       <c r="H693" t="n">
-        <v>0</v>
-      </c>
-      <c r="I693" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I693" t="n">
+        <v>293000</v>
+      </c>
       <c r="J693" t="inlineStr"/>
-      <c r="K693" t="inlineStr"/>
+      <c r="K693" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L693" t="n">
         <v>1</v>
       </c>
@@ -23287,11 +23573,17 @@
         <v>-10411.8505849</v>
       </c>
       <c r="H694" t="n">
-        <v>0</v>
-      </c>
-      <c r="I694" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I694" t="n">
+        <v>293000</v>
+      </c>
       <c r="J694" t="inlineStr"/>
-      <c r="K694" t="inlineStr"/>
+      <c r="K694" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L694" t="n">
         <v>1</v>
       </c>
@@ -23320,11 +23612,17 @@
         <v>-10398.8385849</v>
       </c>
       <c r="H695" t="n">
-        <v>0</v>
-      </c>
-      <c r="I695" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I695" t="n">
+        <v>293000</v>
+      </c>
       <c r="J695" t="inlineStr"/>
-      <c r="K695" t="inlineStr"/>
+      <c r="K695" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L695" t="n">
         <v>1</v>
       </c>
@@ -23353,11 +23651,17 @@
         <v>-10398.8429849</v>
       </c>
       <c r="H696" t="n">
-        <v>0</v>
-      </c>
-      <c r="I696" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I696" t="n">
+        <v>293400</v>
+      </c>
       <c r="J696" t="inlineStr"/>
-      <c r="K696" t="inlineStr"/>
+      <c r="K696" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L696" t="n">
         <v>1</v>
       </c>
@@ -23386,11 +23690,17 @@
         <v>-10403.0959849</v>
       </c>
       <c r="H697" t="n">
-        <v>0</v>
-      </c>
-      <c r="I697" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I697" t="n">
+        <v>293000</v>
+      </c>
       <c r="J697" t="inlineStr"/>
-      <c r="K697" t="inlineStr"/>
+      <c r="K697" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L697" t="n">
         <v>1</v>
       </c>
@@ -23419,11 +23729,17 @@
         <v>-10432.2903849</v>
       </c>
       <c r="H698" t="n">
-        <v>0</v>
-      </c>
-      <c r="I698" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I698" t="n">
+        <v>292500</v>
+      </c>
       <c r="J698" t="inlineStr"/>
-      <c r="K698" t="inlineStr"/>
+      <c r="K698" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L698" t="n">
         <v>1</v>
       </c>
@@ -23452,11 +23768,17 @@
         <v>-10382.52735521</v>
       </c>
       <c r="H699" t="n">
-        <v>0</v>
-      </c>
-      <c r="I699" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I699" t="n">
+        <v>292300</v>
+      </c>
       <c r="J699" t="inlineStr"/>
-      <c r="K699" t="inlineStr"/>
+      <c r="K699" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L699" t="n">
         <v>1</v>
       </c>
@@ -23485,11 +23807,17 @@
         <v>-10382.52735521</v>
       </c>
       <c r="H700" t="n">
-        <v>0</v>
-      </c>
-      <c r="I700" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I700" t="n">
+        <v>293500</v>
+      </c>
       <c r="J700" t="inlineStr"/>
-      <c r="K700" t="inlineStr"/>
+      <c r="K700" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L700" t="n">
         <v>1</v>
       </c>
@@ -23518,11 +23846,17 @@
         <v>-10357.55045521</v>
       </c>
       <c r="H701" t="n">
-        <v>0</v>
-      </c>
-      <c r="I701" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I701" t="n">
+        <v>293500</v>
+      </c>
       <c r="J701" t="inlineStr"/>
-      <c r="K701" t="inlineStr"/>
+      <c r="K701" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L701" t="n">
         <v>1</v>
       </c>
@@ -23551,11 +23885,17 @@
         <v>-10342.56285521</v>
       </c>
       <c r="H702" t="n">
-        <v>0</v>
-      </c>
-      <c r="I702" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I702" t="n">
+        <v>293900</v>
+      </c>
       <c r="J702" t="inlineStr"/>
-      <c r="K702" t="inlineStr"/>
+      <c r="K702" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L702" t="n">
         <v>1</v>
       </c>
@@ -23584,11 +23924,17 @@
         <v>-10369.97165521</v>
       </c>
       <c r="H703" t="n">
-        <v>0</v>
-      </c>
-      <c r="I703" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I703" t="n">
+        <v>294000</v>
+      </c>
       <c r="J703" t="inlineStr"/>
-      <c r="K703" t="inlineStr"/>
+      <c r="K703" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L703" t="n">
         <v>1</v>
       </c>
@@ -23617,11 +23963,17 @@
         <v>-10433.39255521</v>
       </c>
       <c r="H704" t="n">
-        <v>0</v>
-      </c>
-      <c r="I704" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I704" t="n">
+        <v>293900</v>
+      </c>
       <c r="J704" t="inlineStr"/>
-      <c r="K704" t="inlineStr"/>
+      <c r="K704" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L704" t="n">
         <v>1</v>
       </c>
@@ -23654,7 +24006,11 @@
       </c>
       <c r="I705" t="inlineStr"/>
       <c r="J705" t="inlineStr"/>
-      <c r="K705" t="inlineStr"/>
+      <c r="K705" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L705" t="n">
         <v>1</v>
       </c>
@@ -23683,11 +24039,17 @@
         <v>-10448.51285521</v>
       </c>
       <c r="H706" t="n">
-        <v>0</v>
-      </c>
-      <c r="I706" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I706" t="n">
+        <v>293100</v>
+      </c>
       <c r="J706" t="inlineStr"/>
-      <c r="K706" t="inlineStr"/>
+      <c r="K706" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L706" t="n">
         <v>1</v>
       </c>
@@ -23720,7 +24082,11 @@
       </c>
       <c r="I707" t="inlineStr"/>
       <c r="J707" t="inlineStr"/>
-      <c r="K707" t="inlineStr"/>
+      <c r="K707" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L707" t="n">
         <v>1</v>
       </c>
@@ -23753,7 +24119,11 @@
       </c>
       <c r="I708" t="inlineStr"/>
       <c r="J708" t="inlineStr"/>
-      <c r="K708" t="inlineStr"/>
+      <c r="K708" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L708" t="n">
         <v>1</v>
       </c>
@@ -23782,11 +24152,17 @@
         <v>-10439.62075521</v>
       </c>
       <c r="H709" t="n">
-        <v>0</v>
-      </c>
-      <c r="I709" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I709" t="n">
+        <v>294000</v>
+      </c>
       <c r="J709" t="inlineStr"/>
-      <c r="K709" t="inlineStr"/>
+      <c r="K709" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L709" t="n">
         <v>1</v>
       </c>
@@ -23815,11 +24191,17 @@
         <v>-10439.62075521</v>
       </c>
       <c r="H710" t="n">
-        <v>0</v>
-      </c>
-      <c r="I710" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I710" t="n">
+        <v>294000</v>
+      </c>
       <c r="J710" t="inlineStr"/>
-      <c r="K710" t="inlineStr"/>
+      <c r="K710" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L710" t="n">
         <v>1</v>
       </c>
@@ -23848,11 +24230,17 @@
         <v>-10420.83405521</v>
       </c>
       <c r="H711" t="n">
-        <v>0</v>
-      </c>
-      <c r="I711" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I711" t="n">
+        <v>294000</v>
+      </c>
       <c r="J711" t="inlineStr"/>
-      <c r="K711" t="inlineStr"/>
+      <c r="K711" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L711" t="n">
         <v>1</v>
       </c>
@@ -23881,11 +24269,17 @@
         <v>-10431.39895521</v>
       </c>
       <c r="H712" t="n">
-        <v>0</v>
-      </c>
-      <c r="I712" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I712" t="n">
+        <v>294200</v>
+      </c>
       <c r="J712" t="inlineStr"/>
-      <c r="K712" t="inlineStr"/>
+      <c r="K712" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L712" t="n">
         <v>1</v>
       </c>
@@ -23914,11 +24308,17 @@
         <v>-10478.72805521</v>
       </c>
       <c r="H713" t="n">
-        <v>0</v>
-      </c>
-      <c r="I713" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I713" t="n">
+        <v>293500</v>
+      </c>
       <c r="J713" t="inlineStr"/>
-      <c r="K713" t="inlineStr"/>
+      <c r="K713" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L713" t="n">
         <v>1</v>
       </c>
@@ -23947,11 +24347,17 @@
         <v>-10455.40295521</v>
       </c>
       <c r="H714" t="n">
-        <v>0</v>
-      </c>
-      <c r="I714" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I714" t="n">
+        <v>292900</v>
+      </c>
       <c r="J714" t="inlineStr"/>
-      <c r="K714" t="inlineStr"/>
+      <c r="K714" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L714" t="n">
         <v>1</v>
       </c>
@@ -23980,11 +24386,17 @@
         <v>-10455.90185521</v>
       </c>
       <c r="H715" t="n">
-        <v>0</v>
-      </c>
-      <c r="I715" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I715" t="n">
+        <v>293000</v>
+      </c>
       <c r="J715" t="inlineStr"/>
-      <c r="K715" t="inlineStr"/>
+      <c r="K715" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L715" t="n">
         <v>1</v>
       </c>
@@ -24013,11 +24425,17 @@
         <v>-10455.90185521</v>
       </c>
       <c r="H716" t="n">
-        <v>0</v>
-      </c>
-      <c r="I716" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I716" t="n">
+        <v>292700</v>
+      </c>
       <c r="J716" t="inlineStr"/>
-      <c r="K716" t="inlineStr"/>
+      <c r="K716" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L716" t="n">
         <v>1</v>
       </c>
@@ -24046,11 +24464,17 @@
         <v>-10439.45125521</v>
       </c>
       <c r="H717" t="n">
-        <v>0</v>
-      </c>
-      <c r="I717" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I717" t="n">
+        <v>292700</v>
+      </c>
       <c r="J717" t="inlineStr"/>
-      <c r="K717" t="inlineStr"/>
+      <c r="K717" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L717" t="n">
         <v>1</v>
       </c>
@@ -24079,11 +24503,17 @@
         <v>-10590.88915521</v>
       </c>
       <c r="H718" t="n">
-        <v>0</v>
-      </c>
-      <c r="I718" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I718" t="n">
+        <v>293000</v>
+      </c>
       <c r="J718" t="inlineStr"/>
-      <c r="K718" t="inlineStr"/>
+      <c r="K718" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L718" t="n">
         <v>1</v>
       </c>
@@ -24112,11 +24542,17 @@
         <v>-10443.40135521</v>
       </c>
       <c r="H719" t="n">
-        <v>0</v>
-      </c>
-      <c r="I719" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I719" t="n">
+        <v>292100</v>
+      </c>
       <c r="J719" t="inlineStr"/>
-      <c r="K719" t="inlineStr"/>
+      <c r="K719" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L719" t="n">
         <v>1</v>
       </c>
@@ -24145,11 +24581,17 @@
         <v>-10477.42655521</v>
       </c>
       <c r="H720" t="n">
-        <v>0</v>
-      </c>
-      <c r="I720" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I720" t="n">
+        <v>292200</v>
+      </c>
       <c r="J720" t="inlineStr"/>
-      <c r="K720" t="inlineStr"/>
+      <c r="K720" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L720" t="n">
         <v>1</v>
       </c>
@@ -24183,10 +24625,12 @@
       <c r="I721" t="n">
         <v>291800</v>
       </c>
-      <c r="J721" t="n">
-        <v>291800</v>
-      </c>
-      <c r="K721" t="inlineStr"/>
+      <c r="J721" t="inlineStr"/>
+      <c r="K721" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L721" t="n">
         <v>1</v>
       </c>
@@ -24220,12 +24664,10 @@
       <c r="I722" t="n">
         <v>291900</v>
       </c>
-      <c r="J722" t="n">
-        <v>291800</v>
-      </c>
+      <c r="J722" t="inlineStr"/>
       <c r="K722" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L722" t="n">
@@ -24261,12 +24703,10 @@
       <c r="I723" t="n">
         <v>292600</v>
       </c>
-      <c r="J723" t="n">
-        <v>291800</v>
-      </c>
+      <c r="J723" t="inlineStr"/>
       <c r="K723" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L723" t="n">
@@ -24297,11 +24737,17 @@
         <v>-10438.83905521</v>
       </c>
       <c r="H724" t="n">
-        <v>0</v>
-      </c>
-      <c r="I724" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I724" t="n">
+        <v>292600</v>
+      </c>
       <c r="J724" t="inlineStr"/>
-      <c r="K724" t="inlineStr"/>
+      <c r="K724" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L724" t="n">
         <v>1</v>
       </c>
@@ -24338,7 +24784,7 @@
       <c r="J725" t="inlineStr"/>
       <c r="K725" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L725" t="n">
@@ -25656,9 +26102,11 @@
         <v>-10493.41925521</v>
       </c>
       <c r="H759" t="n">
-        <v>0</v>
-      </c>
-      <c r="I759" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I759" t="n">
+        <v>293600</v>
+      </c>
       <c r="J759" t="inlineStr"/>
       <c r="K759" t="inlineStr">
         <is>
@@ -25693,9 +26141,11 @@
         <v>-10445.53215521</v>
       </c>
       <c r="H760" t="n">
-        <v>0</v>
-      </c>
-      <c r="I760" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I760" t="n">
+        <v>294100</v>
+      </c>
       <c r="J760" t="inlineStr"/>
       <c r="K760" t="inlineStr">
         <is>
@@ -25730,9 +26180,11 @@
         <v>-10232.52045521</v>
       </c>
       <c r="H761" t="n">
-        <v>0</v>
-      </c>
-      <c r="I761" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I761" t="n">
+        <v>295800</v>
+      </c>
       <c r="J761" t="inlineStr"/>
       <c r="K761" t="inlineStr">
         <is>
@@ -25767,9 +26219,11 @@
         <v>-10058.8914372</v>
       </c>
       <c r="H762" t="n">
-        <v>0</v>
-      </c>
-      <c r="I762" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I762" t="n">
+        <v>296700</v>
+      </c>
       <c r="J762" t="inlineStr"/>
       <c r="K762" t="inlineStr">
         <is>
@@ -25804,9 +26258,11 @@
         <v>-10043.7375372</v>
       </c>
       <c r="H763" t="n">
-        <v>0</v>
-      </c>
-      <c r="I763" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I763" t="n">
+        <v>297200</v>
+      </c>
       <c r="J763" t="inlineStr"/>
       <c r="K763" t="inlineStr">
         <is>
@@ -27136,16 +27592,18 @@
         <v>-9473.285639219997</v>
       </c>
       <c r="H799" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I799" t="inlineStr"/>
       <c r="J799" t="inlineStr"/>
       <c r="K799" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L799" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L799" t="n">
+        <v>1</v>
+      </c>
       <c r="M799" t="inlineStr"/>
     </row>
     <row r="800">
@@ -27175,7 +27633,11 @@
       </c>
       <c r="I800" t="inlineStr"/>
       <c r="J800" t="inlineStr"/>
-      <c r="K800" t="inlineStr"/>
+      <c r="K800" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L800" t="n">
         <v>1</v>
       </c>
@@ -27208,7 +27670,11 @@
       </c>
       <c r="I801" t="inlineStr"/>
       <c r="J801" t="inlineStr"/>
-      <c r="K801" t="inlineStr"/>
+      <c r="K801" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L801" t="n">
         <v>1</v>
       </c>
@@ -27241,7 +27707,11 @@
       </c>
       <c r="I802" t="inlineStr"/>
       <c r="J802" t="inlineStr"/>
-      <c r="K802" t="inlineStr"/>
+      <c r="K802" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L802" t="n">
         <v>1</v>
       </c>
@@ -27274,7 +27744,11 @@
       </c>
       <c r="I803" t="inlineStr"/>
       <c r="J803" t="inlineStr"/>
-      <c r="K803" t="inlineStr"/>
+      <c r="K803" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L803" t="n">
         <v>1</v>
       </c>
@@ -27307,7 +27781,11 @@
       </c>
       <c r="I804" t="inlineStr"/>
       <c r="J804" t="inlineStr"/>
-      <c r="K804" t="inlineStr"/>
+      <c r="K804" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L804" t="n">
         <v>1</v>
       </c>
@@ -27340,7 +27818,11 @@
       </c>
       <c r="I805" t="inlineStr"/>
       <c r="J805" t="inlineStr"/>
-      <c r="K805" t="inlineStr"/>
+      <c r="K805" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L805" t="n">
         <v>1</v>
       </c>
@@ -27373,7 +27855,11 @@
       </c>
       <c r="I806" t="inlineStr"/>
       <c r="J806" t="inlineStr"/>
-      <c r="K806" t="inlineStr"/>
+      <c r="K806" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L806" t="n">
         <v>1</v>
       </c>
@@ -27406,7 +27892,11 @@
       </c>
       <c r="I807" t="inlineStr"/>
       <c r="J807" t="inlineStr"/>
-      <c r="K807" t="inlineStr"/>
+      <c r="K807" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L807" t="n">
         <v>1</v>
       </c>
@@ -27439,7 +27929,11 @@
       </c>
       <c r="I808" t="inlineStr"/>
       <c r="J808" t="inlineStr"/>
-      <c r="K808" t="inlineStr"/>
+      <c r="K808" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L808" t="n">
         <v>1</v>
       </c>
@@ -27472,7 +27966,11 @@
       </c>
       <c r="I809" t="inlineStr"/>
       <c r="J809" t="inlineStr"/>
-      <c r="K809" t="inlineStr"/>
+      <c r="K809" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L809" t="n">
         <v>1</v>
       </c>
@@ -27505,7 +28003,11 @@
       </c>
       <c r="I810" t="inlineStr"/>
       <c r="J810" t="inlineStr"/>
-      <c r="K810" t="inlineStr"/>
+      <c r="K810" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L810" t="n">
         <v>1</v>
       </c>
@@ -27538,7 +28040,11 @@
       </c>
       <c r="I811" t="inlineStr"/>
       <c r="J811" t="inlineStr"/>
-      <c r="K811" t="inlineStr"/>
+      <c r="K811" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L811" t="n">
         <v>1</v>
       </c>
@@ -27571,7 +28077,11 @@
       </c>
       <c r="I812" t="inlineStr"/>
       <c r="J812" t="inlineStr"/>
-      <c r="K812" t="inlineStr"/>
+      <c r="K812" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L812" t="n">
         <v>1</v>
       </c>
@@ -27604,7 +28114,11 @@
       </c>
       <c r="I813" t="inlineStr"/>
       <c r="J813" t="inlineStr"/>
-      <c r="K813" t="inlineStr"/>
+      <c r="K813" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L813" t="n">
         <v>1</v>
       </c>
@@ -27637,7 +28151,11 @@
       </c>
       <c r="I814" t="inlineStr"/>
       <c r="J814" t="inlineStr"/>
-      <c r="K814" t="inlineStr"/>
+      <c r="K814" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L814" t="n">
         <v>1</v>
       </c>
@@ -27670,7 +28188,11 @@
       </c>
       <c r="I815" t="inlineStr"/>
       <c r="J815" t="inlineStr"/>
-      <c r="K815" t="inlineStr"/>
+      <c r="K815" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L815" t="n">
         <v>1</v>
       </c>
@@ -27703,7 +28225,11 @@
       </c>
       <c r="I816" t="inlineStr"/>
       <c r="J816" t="inlineStr"/>
-      <c r="K816" t="inlineStr"/>
+      <c r="K816" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L816" t="n">
         <v>1</v>
       </c>
@@ -27736,7 +28262,11 @@
       </c>
       <c r="I817" t="inlineStr"/>
       <c r="J817" t="inlineStr"/>
-      <c r="K817" t="inlineStr"/>
+      <c r="K817" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L817" t="n">
         <v>1</v>
       </c>
@@ -27769,7 +28299,11 @@
       </c>
       <c r="I818" t="inlineStr"/>
       <c r="J818" t="inlineStr"/>
-      <c r="K818" t="inlineStr"/>
+      <c r="K818" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L818" t="n">
         <v>1</v>
       </c>
@@ -27802,7 +28336,11 @@
       </c>
       <c r="I819" t="inlineStr"/>
       <c r="J819" t="inlineStr"/>
-      <c r="K819" t="inlineStr"/>
+      <c r="K819" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L819" t="n">
         <v>1</v>
       </c>
@@ -27835,7 +28373,11 @@
       </c>
       <c r="I820" t="inlineStr"/>
       <c r="J820" t="inlineStr"/>
-      <c r="K820" t="inlineStr"/>
+      <c r="K820" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L820" t="n">
         <v>1</v>
       </c>
@@ -27868,7 +28410,11 @@
       </c>
       <c r="I821" t="inlineStr"/>
       <c r="J821" t="inlineStr"/>
-      <c r="K821" t="inlineStr"/>
+      <c r="K821" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L821" t="n">
         <v>1</v>
       </c>
@@ -27901,7 +28447,11 @@
       </c>
       <c r="I822" t="inlineStr"/>
       <c r="J822" t="inlineStr"/>
-      <c r="K822" t="inlineStr"/>
+      <c r="K822" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L822" t="n">
         <v>1</v>
       </c>
@@ -27934,7 +28484,11 @@
       </c>
       <c r="I823" t="inlineStr"/>
       <c r="J823" t="inlineStr"/>
-      <c r="K823" t="inlineStr"/>
+      <c r="K823" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L823" t="n">
         <v>1</v>
       </c>
@@ -27967,7 +28521,11 @@
       </c>
       <c r="I824" t="inlineStr"/>
       <c r="J824" t="inlineStr"/>
-      <c r="K824" t="inlineStr"/>
+      <c r="K824" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L824" t="n">
         <v>1</v>
       </c>
@@ -28000,7 +28558,11 @@
       </c>
       <c r="I825" t="inlineStr"/>
       <c r="J825" t="inlineStr"/>
-      <c r="K825" t="inlineStr"/>
+      <c r="K825" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L825" t="n">
         <v>1</v>
       </c>
@@ -28033,7 +28595,11 @@
       </c>
       <c r="I826" t="inlineStr"/>
       <c r="J826" t="inlineStr"/>
-      <c r="K826" t="inlineStr"/>
+      <c r="K826" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L826" t="n">
         <v>1</v>
       </c>
@@ -28066,7 +28632,11 @@
       </c>
       <c r="I827" t="inlineStr"/>
       <c r="J827" t="inlineStr"/>
-      <c r="K827" t="inlineStr"/>
+      <c r="K827" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L827" t="n">
         <v>1</v>
       </c>
@@ -28099,7 +28669,11 @@
       </c>
       <c r="I828" t="inlineStr"/>
       <c r="J828" t="inlineStr"/>
-      <c r="K828" t="inlineStr"/>
+      <c r="K828" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L828" t="n">
         <v>1</v>
       </c>
@@ -28132,7 +28706,11 @@
       </c>
       <c r="I829" t="inlineStr"/>
       <c r="J829" t="inlineStr"/>
-      <c r="K829" t="inlineStr"/>
+      <c r="K829" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L829" t="n">
         <v>1</v>
       </c>
@@ -28165,7 +28743,11 @@
       </c>
       <c r="I830" t="inlineStr"/>
       <c r="J830" t="inlineStr"/>
-      <c r="K830" t="inlineStr"/>
+      <c r="K830" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L830" t="n">
         <v>1</v>
       </c>
@@ -28198,7 +28780,11 @@
       </c>
       <c r="I831" t="inlineStr"/>
       <c r="J831" t="inlineStr"/>
-      <c r="K831" t="inlineStr"/>
+      <c r="K831" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L831" t="n">
         <v>1</v>
       </c>
@@ -28231,7 +28817,11 @@
       </c>
       <c r="I832" t="inlineStr"/>
       <c r="J832" t="inlineStr"/>
-      <c r="K832" t="inlineStr"/>
+      <c r="K832" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L832" t="n">
         <v>1</v>
       </c>
@@ -28264,7 +28854,11 @@
       </c>
       <c r="I833" t="inlineStr"/>
       <c r="J833" t="inlineStr"/>
-      <c r="K833" t="inlineStr"/>
+      <c r="K833" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L833" t="n">
         <v>1</v>
       </c>
@@ -28297,7 +28891,11 @@
       </c>
       <c r="I834" t="inlineStr"/>
       <c r="J834" t="inlineStr"/>
-      <c r="K834" t="inlineStr"/>
+      <c r="K834" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L834" t="n">
         <v>1</v>
       </c>
@@ -28330,7 +28928,11 @@
       </c>
       <c r="I835" t="inlineStr"/>
       <c r="J835" t="inlineStr"/>
-      <c r="K835" t="inlineStr"/>
+      <c r="K835" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L835" t="n">
         <v>1</v>
       </c>
@@ -28363,7 +28965,11 @@
       </c>
       <c r="I836" t="inlineStr"/>
       <c r="J836" t="inlineStr"/>
-      <c r="K836" t="inlineStr"/>
+      <c r="K836" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L836" t="n">
         <v>1</v>
       </c>
@@ -28396,7 +29002,11 @@
       </c>
       <c r="I837" t="inlineStr"/>
       <c r="J837" t="inlineStr"/>
-      <c r="K837" t="inlineStr"/>
+      <c r="K837" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L837" t="n">
         <v>1</v>
       </c>
@@ -28429,7 +29039,11 @@
       </c>
       <c r="I838" t="inlineStr"/>
       <c r="J838" t="inlineStr"/>
-      <c r="K838" t="inlineStr"/>
+      <c r="K838" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L838" t="n">
         <v>1</v>
       </c>
@@ -28462,7 +29076,11 @@
       </c>
       <c r="I839" t="inlineStr"/>
       <c r="J839" t="inlineStr"/>
-      <c r="K839" t="inlineStr"/>
+      <c r="K839" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L839" t="n">
         <v>1</v>
       </c>
@@ -28495,7 +29113,11 @@
       </c>
       <c r="I840" t="inlineStr"/>
       <c r="J840" t="inlineStr"/>
-      <c r="K840" t="inlineStr"/>
+      <c r="K840" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L840" t="n">
         <v>1</v>
       </c>
@@ -28528,7 +29150,11 @@
       </c>
       <c r="I841" t="inlineStr"/>
       <c r="J841" t="inlineStr"/>
-      <c r="K841" t="inlineStr"/>
+      <c r="K841" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L841" t="n">
         <v>1</v>
       </c>
@@ -28561,7 +29187,11 @@
       </c>
       <c r="I842" t="inlineStr"/>
       <c r="J842" t="inlineStr"/>
-      <c r="K842" t="inlineStr"/>
+      <c r="K842" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L842" t="n">
         <v>1</v>
       </c>
@@ -28594,7 +29224,11 @@
       </c>
       <c r="I843" t="inlineStr"/>
       <c r="J843" t="inlineStr"/>
-      <c r="K843" t="inlineStr"/>
+      <c r="K843" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L843" t="n">
         <v>1</v>
       </c>
@@ -28627,7 +29261,11 @@
       </c>
       <c r="I844" t="inlineStr"/>
       <c r="J844" t="inlineStr"/>
-      <c r="K844" t="inlineStr"/>
+      <c r="K844" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L844" t="n">
         <v>1</v>
       </c>
@@ -28660,7 +29298,11 @@
       </c>
       <c r="I845" t="inlineStr"/>
       <c r="J845" t="inlineStr"/>
-      <c r="K845" t="inlineStr"/>
+      <c r="K845" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L845" t="n">
         <v>1</v>
       </c>
@@ -28693,7 +29335,11 @@
       </c>
       <c r="I846" t="inlineStr"/>
       <c r="J846" t="inlineStr"/>
-      <c r="K846" t="inlineStr"/>
+      <c r="K846" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L846" t="n">
         <v>1</v>
       </c>
@@ -28726,7 +29372,11 @@
       </c>
       <c r="I847" t="inlineStr"/>
       <c r="J847" t="inlineStr"/>
-      <c r="K847" t="inlineStr"/>
+      <c r="K847" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L847" t="n">
         <v>1</v>
       </c>
@@ -28759,7 +29409,11 @@
       </c>
       <c r="I848" t="inlineStr"/>
       <c r="J848" t="inlineStr"/>
-      <c r="K848" t="inlineStr"/>
+      <c r="K848" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L848" t="n">
         <v>1</v>
       </c>
@@ -28792,7 +29446,11 @@
       </c>
       <c r="I849" t="inlineStr"/>
       <c r="J849" t="inlineStr"/>
-      <c r="K849" t="inlineStr"/>
+      <c r="K849" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L849" t="n">
         <v>1</v>
       </c>
@@ -28825,7 +29483,11 @@
       </c>
       <c r="I850" t="inlineStr"/>
       <c r="J850" t="inlineStr"/>
-      <c r="K850" t="inlineStr"/>
+      <c r="K850" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L850" t="n">
         <v>1</v>
       </c>
@@ -28858,7 +29520,11 @@
       </c>
       <c r="I851" t="inlineStr"/>
       <c r="J851" t="inlineStr"/>
-      <c r="K851" t="inlineStr"/>
+      <c r="K851" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L851" t="n">
         <v>1</v>
       </c>
@@ -28891,7 +29557,11 @@
       </c>
       <c r="I852" t="inlineStr"/>
       <c r="J852" t="inlineStr"/>
-      <c r="K852" t="inlineStr"/>
+      <c r="K852" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L852" t="n">
         <v>1</v>
       </c>
@@ -28924,7 +29594,11 @@
       </c>
       <c r="I853" t="inlineStr"/>
       <c r="J853" t="inlineStr"/>
-      <c r="K853" t="inlineStr"/>
+      <c r="K853" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L853" t="n">
         <v>1</v>
       </c>
@@ -28957,7 +29631,11 @@
       </c>
       <c r="I854" t="inlineStr"/>
       <c r="J854" t="inlineStr"/>
-      <c r="K854" t="inlineStr"/>
+      <c r="K854" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L854" t="n">
         <v>1</v>
       </c>
@@ -28990,7 +29668,11 @@
       </c>
       <c r="I855" t="inlineStr"/>
       <c r="J855" t="inlineStr"/>
-      <c r="K855" t="inlineStr"/>
+      <c r="K855" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L855" t="n">
         <v>1</v>
       </c>
@@ -29023,7 +29705,11 @@
       </c>
       <c r="I856" t="inlineStr"/>
       <c r="J856" t="inlineStr"/>
-      <c r="K856" t="inlineStr"/>
+      <c r="K856" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L856" t="n">
         <v>1</v>
       </c>
@@ -29056,7 +29742,11 @@
       </c>
       <c r="I857" t="inlineStr"/>
       <c r="J857" t="inlineStr"/>
-      <c r="K857" t="inlineStr"/>
+      <c r="K857" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L857" t="n">
         <v>1</v>
       </c>
@@ -29089,7 +29779,11 @@
       </c>
       <c r="I858" t="inlineStr"/>
       <c r="J858" t="inlineStr"/>
-      <c r="K858" t="inlineStr"/>
+      <c r="K858" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L858" t="n">
         <v>1</v>
       </c>
@@ -29122,7 +29816,11 @@
       </c>
       <c r="I859" t="inlineStr"/>
       <c r="J859" t="inlineStr"/>
-      <c r="K859" t="inlineStr"/>
+      <c r="K859" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L859" t="n">
         <v>1</v>
       </c>
@@ -29155,7 +29853,11 @@
       </c>
       <c r="I860" t="inlineStr"/>
       <c r="J860" t="inlineStr"/>
-      <c r="K860" t="inlineStr"/>
+      <c r="K860" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L860" t="n">
         <v>1</v>
       </c>
@@ -29188,7 +29890,11 @@
       </c>
       <c r="I861" t="inlineStr"/>
       <c r="J861" t="inlineStr"/>
-      <c r="K861" t="inlineStr"/>
+      <c r="K861" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L861" t="n">
         <v>1</v>
       </c>
@@ -29221,7 +29927,11 @@
       </c>
       <c r="I862" t="inlineStr"/>
       <c r="J862" t="inlineStr"/>
-      <c r="K862" t="inlineStr"/>
+      <c r="K862" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L862" t="n">
         <v>1</v>
       </c>
@@ -29254,7 +29964,11 @@
       </c>
       <c r="I863" t="inlineStr"/>
       <c r="J863" t="inlineStr"/>
-      <c r="K863" t="inlineStr"/>
+      <c r="K863" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L863" t="n">
         <v>1</v>
       </c>
@@ -29287,7 +30001,11 @@
       </c>
       <c r="I864" t="inlineStr"/>
       <c r="J864" t="inlineStr"/>
-      <c r="K864" t="inlineStr"/>
+      <c r="K864" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L864" t="n">
         <v>1</v>
       </c>
@@ -29320,7 +30038,11 @@
       </c>
       <c r="I865" t="inlineStr"/>
       <c r="J865" t="inlineStr"/>
-      <c r="K865" t="inlineStr"/>
+      <c r="K865" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L865" t="n">
         <v>1</v>
       </c>
@@ -29353,7 +30075,11 @@
       </c>
       <c r="I866" t="inlineStr"/>
       <c r="J866" t="inlineStr"/>
-      <c r="K866" t="inlineStr"/>
+      <c r="K866" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L866" t="n">
         <v>1</v>
       </c>
@@ -29386,7 +30112,11 @@
       </c>
       <c r="I867" t="inlineStr"/>
       <c r="J867" t="inlineStr"/>
-      <c r="K867" t="inlineStr"/>
+      <c r="K867" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L867" t="n">
         <v>1</v>
       </c>
@@ -29419,7 +30149,11 @@
       </c>
       <c r="I868" t="inlineStr"/>
       <c r="J868" t="inlineStr"/>
-      <c r="K868" t="inlineStr"/>
+      <c r="K868" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L868" t="n">
         <v>1</v>
       </c>
@@ -29452,7 +30186,11 @@
       </c>
       <c r="I869" t="inlineStr"/>
       <c r="J869" t="inlineStr"/>
-      <c r="K869" t="inlineStr"/>
+      <c r="K869" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L869" t="n">
         <v>1</v>
       </c>
@@ -29485,7 +30223,11 @@
       </c>
       <c r="I870" t="inlineStr"/>
       <c r="J870" t="inlineStr"/>
-      <c r="K870" t="inlineStr"/>
+      <c r="K870" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L870" t="n">
         <v>1</v>
       </c>
@@ -29518,7 +30260,11 @@
       </c>
       <c r="I871" t="inlineStr"/>
       <c r="J871" t="inlineStr"/>
-      <c r="K871" t="inlineStr"/>
+      <c r="K871" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L871" t="n">
         <v>1</v>
       </c>
@@ -29551,7 +30297,11 @@
       </c>
       <c r="I872" t="inlineStr"/>
       <c r="J872" t="inlineStr"/>
-      <c r="K872" t="inlineStr"/>
+      <c r="K872" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L872" t="n">
         <v>1</v>
       </c>
@@ -29584,7 +30334,11 @@
       </c>
       <c r="I873" t="inlineStr"/>
       <c r="J873" t="inlineStr"/>
-      <c r="K873" t="inlineStr"/>
+      <c r="K873" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L873" t="n">
         <v>1</v>
       </c>
@@ -29617,7 +30371,11 @@
       </c>
       <c r="I874" t="inlineStr"/>
       <c r="J874" t="inlineStr"/>
-      <c r="K874" t="inlineStr"/>
+      <c r="K874" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L874" t="n">
         <v>1</v>
       </c>
@@ -29650,7 +30408,11 @@
       </c>
       <c r="I875" t="inlineStr"/>
       <c r="J875" t="inlineStr"/>
-      <c r="K875" t="inlineStr"/>
+      <c r="K875" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L875" t="n">
         <v>1</v>
       </c>
@@ -29683,7 +30445,11 @@
       </c>
       <c r="I876" t="inlineStr"/>
       <c r="J876" t="inlineStr"/>
-      <c r="K876" t="inlineStr"/>
+      <c r="K876" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L876" t="n">
         <v>1</v>
       </c>
@@ -29716,7 +30482,11 @@
       </c>
       <c r="I877" t="inlineStr"/>
       <c r="J877" t="inlineStr"/>
-      <c r="K877" t="inlineStr"/>
+      <c r="K877" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L877" t="n">
         <v>1</v>
       </c>
@@ -29749,7 +30519,11 @@
       </c>
       <c r="I878" t="inlineStr"/>
       <c r="J878" t="inlineStr"/>
-      <c r="K878" t="inlineStr"/>
+      <c r="K878" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L878" t="n">
         <v>1</v>
       </c>
@@ -29782,7 +30556,11 @@
       </c>
       <c r="I879" t="inlineStr"/>
       <c r="J879" t="inlineStr"/>
-      <c r="K879" t="inlineStr"/>
+      <c r="K879" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L879" t="n">
         <v>1</v>
       </c>
@@ -29815,7 +30593,11 @@
       </c>
       <c r="I880" t="inlineStr"/>
       <c r="J880" t="inlineStr"/>
-      <c r="K880" t="inlineStr"/>
+      <c r="K880" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L880" t="n">
         <v>1</v>
       </c>
@@ -29848,7 +30630,11 @@
       </c>
       <c r="I881" t="inlineStr"/>
       <c r="J881" t="inlineStr"/>
-      <c r="K881" t="inlineStr"/>
+      <c r="K881" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L881" t="n">
         <v>1</v>
       </c>
@@ -29881,7 +30667,11 @@
       </c>
       <c r="I882" t="inlineStr"/>
       <c r="J882" t="inlineStr"/>
-      <c r="K882" t="inlineStr"/>
+      <c r="K882" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L882" t="n">
         <v>1</v>
       </c>
@@ -29914,7 +30704,11 @@
       </c>
       <c r="I883" t="inlineStr"/>
       <c r="J883" t="inlineStr"/>
-      <c r="K883" t="inlineStr"/>
+      <c r="K883" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L883" t="n">
         <v>1</v>
       </c>
@@ -29947,7 +30741,11 @@
       </c>
       <c r="I884" t="inlineStr"/>
       <c r="J884" t="inlineStr"/>
-      <c r="K884" t="inlineStr"/>
+      <c r="K884" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L884" t="n">
         <v>1</v>
       </c>
@@ -29980,7 +30778,11 @@
       </c>
       <c r="I885" t="inlineStr"/>
       <c r="J885" t="inlineStr"/>
-      <c r="K885" t="inlineStr"/>
+      <c r="K885" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L885" t="n">
         <v>1</v>
       </c>
@@ -30013,7 +30815,11 @@
       </c>
       <c r="I886" t="inlineStr"/>
       <c r="J886" t="inlineStr"/>
-      <c r="K886" t="inlineStr"/>
+      <c r="K886" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L886" t="n">
         <v>1</v>
       </c>
@@ -30046,7 +30852,11 @@
       </c>
       <c r="I887" t="inlineStr"/>
       <c r="J887" t="inlineStr"/>
-      <c r="K887" t="inlineStr"/>
+      <c r="K887" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L887" t="n">
         <v>1</v>
       </c>
@@ -30079,7 +30889,11 @@
       </c>
       <c r="I888" t="inlineStr"/>
       <c r="J888" t="inlineStr"/>
-      <c r="K888" t="inlineStr"/>
+      <c r="K888" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L888" t="n">
         <v>1</v>
       </c>
@@ -30112,7 +30926,11 @@
       </c>
       <c r="I889" t="inlineStr"/>
       <c r="J889" t="inlineStr"/>
-      <c r="K889" t="inlineStr"/>
+      <c r="K889" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L889" t="n">
         <v>1</v>
       </c>
@@ -30145,7 +30963,11 @@
       </c>
       <c r="I890" t="inlineStr"/>
       <c r="J890" t="inlineStr"/>
-      <c r="K890" t="inlineStr"/>
+      <c r="K890" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L890" t="n">
         <v>1</v>
       </c>
@@ -30178,7 +31000,11 @@
       </c>
       <c r="I891" t="inlineStr"/>
       <c r="J891" t="inlineStr"/>
-      <c r="K891" t="inlineStr"/>
+      <c r="K891" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L891" t="n">
         <v>1</v>
       </c>
@@ -30211,7 +31037,11 @@
       </c>
       <c r="I892" t="inlineStr"/>
       <c r="J892" t="inlineStr"/>
-      <c r="K892" t="inlineStr"/>
+      <c r="K892" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L892" t="n">
         <v>1</v>
       </c>
@@ -30244,7 +31074,11 @@
       </c>
       <c r="I893" t="inlineStr"/>
       <c r="J893" t="inlineStr"/>
-      <c r="K893" t="inlineStr"/>
+      <c r="K893" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L893" t="n">
         <v>1</v>
       </c>
@@ -30277,7 +31111,11 @@
       </c>
       <c r="I894" t="inlineStr"/>
       <c r="J894" t="inlineStr"/>
-      <c r="K894" t="inlineStr"/>
+      <c r="K894" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L894" t="n">
         <v>1</v>
       </c>
@@ -30310,7 +31148,11 @@
       </c>
       <c r="I895" t="inlineStr"/>
       <c r="J895" t="inlineStr"/>
-      <c r="K895" t="inlineStr"/>
+      <c r="K895" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L895" t="n">
         <v>1</v>
       </c>
@@ -30343,7 +31185,11 @@
       </c>
       <c r="I896" t="inlineStr"/>
       <c r="J896" t="inlineStr"/>
-      <c r="K896" t="inlineStr"/>
+      <c r="K896" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L896" t="n">
         <v>1</v>
       </c>
@@ -30376,7 +31222,11 @@
       </c>
       <c r="I897" t="inlineStr"/>
       <c r="J897" t="inlineStr"/>
-      <c r="K897" t="inlineStr"/>
+      <c r="K897" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L897" t="n">
         <v>1</v>
       </c>
@@ -30409,7 +31259,11 @@
       </c>
       <c r="I898" t="inlineStr"/>
       <c r="J898" t="inlineStr"/>
-      <c r="K898" t="inlineStr"/>
+      <c r="K898" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L898" t="n">
         <v>1</v>
       </c>
@@ -30442,7 +31296,11 @@
       </c>
       <c r="I899" t="inlineStr"/>
       <c r="J899" t="inlineStr"/>
-      <c r="K899" t="inlineStr"/>
+      <c r="K899" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L899" t="n">
         <v>1</v>
       </c>
@@ -30475,7 +31333,11 @@
       </c>
       <c r="I900" t="inlineStr"/>
       <c r="J900" t="inlineStr"/>
-      <c r="K900" t="inlineStr"/>
+      <c r="K900" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L900" t="n">
         <v>1</v>
       </c>
@@ -30508,7 +31370,11 @@
       </c>
       <c r="I901" t="inlineStr"/>
       <c r="J901" t="inlineStr"/>
-      <c r="K901" t="inlineStr"/>
+      <c r="K901" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L901" t="n">
         <v>1</v>
       </c>
@@ -30541,7 +31407,11 @@
       </c>
       <c r="I902" t="inlineStr"/>
       <c r="J902" t="inlineStr"/>
-      <c r="K902" t="inlineStr"/>
+      <c r="K902" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L902" t="n">
         <v>1</v>
       </c>
@@ -30574,7 +31444,11 @@
       </c>
       <c r="I903" t="inlineStr"/>
       <c r="J903" t="inlineStr"/>
-      <c r="K903" t="inlineStr"/>
+      <c r="K903" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L903" t="n">
         <v>1</v>
       </c>
@@ -30607,7 +31481,11 @@
       </c>
       <c r="I904" t="inlineStr"/>
       <c r="J904" t="inlineStr"/>
-      <c r="K904" t="inlineStr"/>
+      <c r="K904" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L904" t="n">
         <v>1</v>
       </c>
@@ -30640,7 +31518,11 @@
       </c>
       <c r="I905" t="inlineStr"/>
       <c r="J905" t="inlineStr"/>
-      <c r="K905" t="inlineStr"/>
+      <c r="K905" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L905" t="n">
         <v>1</v>
       </c>
@@ -30673,7 +31555,11 @@
       </c>
       <c r="I906" t="inlineStr"/>
       <c r="J906" t="inlineStr"/>
-      <c r="K906" t="inlineStr"/>
+      <c r="K906" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L906" t="n">
         <v>1</v>
       </c>
@@ -30706,7 +31592,11 @@
       </c>
       <c r="I907" t="inlineStr"/>
       <c r="J907" t="inlineStr"/>
-      <c r="K907" t="inlineStr"/>
+      <c r="K907" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L907" t="n">
         <v>1</v>
       </c>
@@ -30739,7 +31629,11 @@
       </c>
       <c r="I908" t="inlineStr"/>
       <c r="J908" t="inlineStr"/>
-      <c r="K908" t="inlineStr"/>
+      <c r="K908" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L908" t="n">
         <v>1</v>
       </c>
@@ -30772,7 +31666,11 @@
       </c>
       <c r="I909" t="inlineStr"/>
       <c r="J909" t="inlineStr"/>
-      <c r="K909" t="inlineStr"/>
+      <c r="K909" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L909" t="n">
         <v>1</v>
       </c>
@@ -30805,7 +31703,11 @@
       </c>
       <c r="I910" t="inlineStr"/>
       <c r="J910" t="inlineStr"/>
-      <c r="K910" t="inlineStr"/>
+      <c r="K910" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L910" t="n">
         <v>1</v>
       </c>
@@ -30838,7 +31740,11 @@
       </c>
       <c r="I911" t="inlineStr"/>
       <c r="J911" t="inlineStr"/>
-      <c r="K911" t="inlineStr"/>
+      <c r="K911" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L911" t="n">
         <v>1</v>
       </c>
@@ -30871,7 +31777,11 @@
       </c>
       <c r="I912" t="inlineStr"/>
       <c r="J912" t="inlineStr"/>
-      <c r="K912" t="inlineStr"/>
+      <c r="K912" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L912" t="n">
         <v>1</v>
       </c>
@@ -30904,7 +31814,11 @@
       </c>
       <c r="I913" t="inlineStr"/>
       <c r="J913" t="inlineStr"/>
-      <c r="K913" t="inlineStr"/>
+      <c r="K913" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L913" t="n">
         <v>1</v>
       </c>
@@ -30937,7 +31851,11 @@
       </c>
       <c r="I914" t="inlineStr"/>
       <c r="J914" t="inlineStr"/>
-      <c r="K914" t="inlineStr"/>
+      <c r="K914" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L914" t="n">
         <v>1</v>
       </c>
@@ -30970,7 +31888,11 @@
       </c>
       <c r="I915" t="inlineStr"/>
       <c r="J915" t="inlineStr"/>
-      <c r="K915" t="inlineStr"/>
+      <c r="K915" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L915" t="n">
         <v>1</v>
       </c>
@@ -31003,7 +31925,11 @@
       </c>
       <c r="I916" t="inlineStr"/>
       <c r="J916" t="inlineStr"/>
-      <c r="K916" t="inlineStr"/>
+      <c r="K916" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L916" t="n">
         <v>1</v>
       </c>
@@ -31036,7 +31962,11 @@
       </c>
       <c r="I917" t="inlineStr"/>
       <c r="J917" t="inlineStr"/>
-      <c r="K917" t="inlineStr"/>
+      <c r="K917" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L917" t="n">
         <v>1</v>
       </c>
@@ -31069,7 +31999,11 @@
       </c>
       <c r="I918" t="inlineStr"/>
       <c r="J918" t="inlineStr"/>
-      <c r="K918" t="inlineStr"/>
+      <c r="K918" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L918" t="n">
         <v>1</v>
       </c>
@@ -31102,7 +32036,11 @@
       </c>
       <c r="I919" t="inlineStr"/>
       <c r="J919" t="inlineStr"/>
-      <c r="K919" t="inlineStr"/>
+      <c r="K919" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L919" t="n">
         <v>1</v>
       </c>
@@ -31135,7 +32073,11 @@
       </c>
       <c r="I920" t="inlineStr"/>
       <c r="J920" t="inlineStr"/>
-      <c r="K920" t="inlineStr"/>
+      <c r="K920" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L920" t="n">
         <v>1</v>
       </c>
@@ -31168,7 +32110,11 @@
       </c>
       <c r="I921" t="inlineStr"/>
       <c r="J921" t="inlineStr"/>
-      <c r="K921" t="inlineStr"/>
+      <c r="K921" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L921" t="n">
         <v>1</v>
       </c>
@@ -31201,7 +32147,11 @@
       </c>
       <c r="I922" t="inlineStr"/>
       <c r="J922" t="inlineStr"/>
-      <c r="K922" t="inlineStr"/>
+      <c r="K922" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L922" t="n">
         <v>1</v>
       </c>
@@ -31234,7 +32184,11 @@
       </c>
       <c r="I923" t="inlineStr"/>
       <c r="J923" t="inlineStr"/>
-      <c r="K923" t="inlineStr"/>
+      <c r="K923" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L923" t="n">
         <v>1</v>
       </c>
@@ -31267,7 +32221,11 @@
       </c>
       <c r="I924" t="inlineStr"/>
       <c r="J924" t="inlineStr"/>
-      <c r="K924" t="inlineStr"/>
+      <c r="K924" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L924" t="n">
         <v>1</v>
       </c>
@@ -31300,7 +32258,11 @@
       </c>
       <c r="I925" t="inlineStr"/>
       <c r="J925" t="inlineStr"/>
-      <c r="K925" t="inlineStr"/>
+      <c r="K925" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L925" t="n">
         <v>1</v>
       </c>
@@ -31333,7 +32295,11 @@
       </c>
       <c r="I926" t="inlineStr"/>
       <c r="J926" t="inlineStr"/>
-      <c r="K926" t="inlineStr"/>
+      <c r="K926" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L926" t="n">
         <v>1</v>
       </c>
@@ -31366,7 +32332,11 @@
       </c>
       <c r="I927" t="inlineStr"/>
       <c r="J927" t="inlineStr"/>
-      <c r="K927" t="inlineStr"/>
+      <c r="K927" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L927" t="n">
         <v>1</v>
       </c>
@@ -31399,7 +32369,11 @@
       </c>
       <c r="I928" t="inlineStr"/>
       <c r="J928" t="inlineStr"/>
-      <c r="K928" t="inlineStr"/>
+      <c r="K928" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L928" t="n">
         <v>1</v>
       </c>
@@ -31432,7 +32406,11 @@
       </c>
       <c r="I929" t="inlineStr"/>
       <c r="J929" t="inlineStr"/>
-      <c r="K929" t="inlineStr"/>
+      <c r="K929" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L929" t="n">
         <v>1</v>
       </c>
@@ -31465,7 +32443,11 @@
       </c>
       <c r="I930" t="inlineStr"/>
       <c r="J930" t="inlineStr"/>
-      <c r="K930" t="inlineStr"/>
+      <c r="K930" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L930" t="n">
         <v>1</v>
       </c>
@@ -31498,7 +32480,11 @@
       </c>
       <c r="I931" t="inlineStr"/>
       <c r="J931" t="inlineStr"/>
-      <c r="K931" t="inlineStr"/>
+      <c r="K931" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L931" t="n">
         <v>1</v>
       </c>
@@ -31531,7 +32517,11 @@
       </c>
       <c r="I932" t="inlineStr"/>
       <c r="J932" t="inlineStr"/>
-      <c r="K932" t="inlineStr"/>
+      <c r="K932" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L932" t="n">
         <v>1</v>
       </c>
@@ -31564,7 +32554,11 @@
       </c>
       <c r="I933" t="inlineStr"/>
       <c r="J933" t="inlineStr"/>
-      <c r="K933" t="inlineStr"/>
+      <c r="K933" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L933" t="n">
         <v>1</v>
       </c>
@@ -31597,7 +32591,11 @@
       </c>
       <c r="I934" t="inlineStr"/>
       <c r="J934" t="inlineStr"/>
-      <c r="K934" t="inlineStr"/>
+      <c r="K934" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L934" t="n">
         <v>1</v>
       </c>
@@ -31630,7 +32628,11 @@
       </c>
       <c r="I935" t="inlineStr"/>
       <c r="J935" t="inlineStr"/>
-      <c r="K935" t="inlineStr"/>
+      <c r="K935" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L935" t="n">
         <v>1</v>
       </c>
@@ -31663,7 +32665,11 @@
       </c>
       <c r="I936" t="inlineStr"/>
       <c r="J936" t="inlineStr"/>
-      <c r="K936" t="inlineStr"/>
+      <c r="K936" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L936" t="n">
         <v>1</v>
       </c>
@@ -31696,7 +32702,11 @@
       </c>
       <c r="I937" t="inlineStr"/>
       <c r="J937" t="inlineStr"/>
-      <c r="K937" t="inlineStr"/>
+      <c r="K937" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L937" t="n">
         <v>1</v>
       </c>
@@ -31729,7 +32739,11 @@
       </c>
       <c r="I938" t="inlineStr"/>
       <c r="J938" t="inlineStr"/>
-      <c r="K938" t="inlineStr"/>
+      <c r="K938" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L938" t="n">
         <v>1</v>
       </c>
@@ -31762,7 +32776,11 @@
       </c>
       <c r="I939" t="inlineStr"/>
       <c r="J939" t="inlineStr"/>
-      <c r="K939" t="inlineStr"/>
+      <c r="K939" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L939" t="n">
         <v>1</v>
       </c>
@@ -31795,7 +32813,11 @@
       </c>
       <c r="I940" t="inlineStr"/>
       <c r="J940" t="inlineStr"/>
-      <c r="K940" t="inlineStr"/>
+      <c r="K940" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L940" t="n">
         <v>1</v>
       </c>
@@ -31828,7 +32850,11 @@
       </c>
       <c r="I941" t="inlineStr"/>
       <c r="J941" t="inlineStr"/>
-      <c r="K941" t="inlineStr"/>
+      <c r="K941" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L941" t="n">
         <v>1</v>
       </c>
@@ -31861,7 +32887,11 @@
       </c>
       <c r="I942" t="inlineStr"/>
       <c r="J942" t="inlineStr"/>
-      <c r="K942" t="inlineStr"/>
+      <c r="K942" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L942" t="n">
         <v>1</v>
       </c>
@@ -31894,7 +32924,11 @@
       </c>
       <c r="I943" t="inlineStr"/>
       <c r="J943" t="inlineStr"/>
-      <c r="K943" t="inlineStr"/>
+      <c r="K943" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L943" t="n">
         <v>1</v>
       </c>
@@ -31927,7 +32961,11 @@
       </c>
       <c r="I944" t="inlineStr"/>
       <c r="J944" t="inlineStr"/>
-      <c r="K944" t="inlineStr"/>
+      <c r="K944" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L944" t="n">
         <v>1</v>
       </c>
@@ -31960,7 +32998,11 @@
       </c>
       <c r="I945" t="inlineStr"/>
       <c r="J945" t="inlineStr"/>
-      <c r="K945" t="inlineStr"/>
+      <c r="K945" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L945" t="n">
         <v>1</v>
       </c>
@@ -31993,7 +33035,11 @@
       </c>
       <c r="I946" t="inlineStr"/>
       <c r="J946" t="inlineStr"/>
-      <c r="K946" t="inlineStr"/>
+      <c r="K946" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L946" t="n">
         <v>1</v>
       </c>
@@ -32026,7 +33072,11 @@
       </c>
       <c r="I947" t="inlineStr"/>
       <c r="J947" t="inlineStr"/>
-      <c r="K947" t="inlineStr"/>
+      <c r="K947" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L947" t="n">
         <v>1</v>
       </c>
@@ -32059,7 +33109,11 @@
       </c>
       <c r="I948" t="inlineStr"/>
       <c r="J948" t="inlineStr"/>
-      <c r="K948" t="inlineStr"/>
+      <c r="K948" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L948" t="n">
         <v>1</v>
       </c>
@@ -32092,7 +33146,11 @@
       </c>
       <c r="I949" t="inlineStr"/>
       <c r="J949" t="inlineStr"/>
-      <c r="K949" t="inlineStr"/>
+      <c r="K949" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L949" t="n">
         <v>1</v>
       </c>
@@ -32125,7 +33183,11 @@
       </c>
       <c r="I950" t="inlineStr"/>
       <c r="J950" t="inlineStr"/>
-      <c r="K950" t="inlineStr"/>
+      <c r="K950" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L950" t="n">
         <v>1</v>
       </c>
@@ -32158,7 +33220,11 @@
       </c>
       <c r="I951" t="inlineStr"/>
       <c r="J951" t="inlineStr"/>
-      <c r="K951" t="inlineStr"/>
+      <c r="K951" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L951" t="n">
         <v>1</v>
       </c>
@@ -32191,7 +33257,11 @@
       </c>
       <c r="I952" t="inlineStr"/>
       <c r="J952" t="inlineStr"/>
-      <c r="K952" t="inlineStr"/>
+      <c r="K952" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L952" t="n">
         <v>1</v>
       </c>
@@ -32224,7 +33294,11 @@
       </c>
       <c r="I953" t="inlineStr"/>
       <c r="J953" t="inlineStr"/>
-      <c r="K953" t="inlineStr"/>
+      <c r="K953" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L953" t="n">
         <v>1</v>
       </c>
@@ -32257,7 +33331,11 @@
       </c>
       <c r="I954" t="inlineStr"/>
       <c r="J954" t="inlineStr"/>
-      <c r="K954" t="inlineStr"/>
+      <c r="K954" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L954" t="n">
         <v>1</v>
       </c>
@@ -32290,7 +33368,11 @@
       </c>
       <c r="I955" t="inlineStr"/>
       <c r="J955" t="inlineStr"/>
-      <c r="K955" t="inlineStr"/>
+      <c r="K955" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L955" t="n">
         <v>1</v>
       </c>
@@ -32323,7 +33405,11 @@
       </c>
       <c r="I956" t="inlineStr"/>
       <c r="J956" t="inlineStr"/>
-      <c r="K956" t="inlineStr"/>
+      <c r="K956" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L956" t="n">
         <v>1</v>
       </c>
@@ -32356,7 +33442,11 @@
       </c>
       <c r="I957" t="inlineStr"/>
       <c r="J957" t="inlineStr"/>
-      <c r="K957" t="inlineStr"/>
+      <c r="K957" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L957" t="n">
         <v>1</v>
       </c>
@@ -32389,7 +33479,11 @@
       </c>
       <c r="I958" t="inlineStr"/>
       <c r="J958" t="inlineStr"/>
-      <c r="K958" t="inlineStr"/>
+      <c r="K958" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L958" t="n">
         <v>1</v>
       </c>
@@ -32422,7 +33516,11 @@
       </c>
       <c r="I959" t="inlineStr"/>
       <c r="J959" t="inlineStr"/>
-      <c r="K959" t="inlineStr"/>
+      <c r="K959" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L959" t="n">
         <v>1</v>
       </c>
@@ -32455,7 +33553,11 @@
       </c>
       <c r="I960" t="inlineStr"/>
       <c r="J960" t="inlineStr"/>
-      <c r="K960" t="inlineStr"/>
+      <c r="K960" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L960" t="n">
         <v>1</v>
       </c>
@@ -32488,7 +33590,11 @@
       </c>
       <c r="I961" t="inlineStr"/>
       <c r="J961" t="inlineStr"/>
-      <c r="K961" t="inlineStr"/>
+      <c r="K961" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L961" t="n">
         <v>1</v>
       </c>
@@ -32521,7 +33627,11 @@
       </c>
       <c r="I962" t="inlineStr"/>
       <c r="J962" t="inlineStr"/>
-      <c r="K962" t="inlineStr"/>
+      <c r="K962" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L962" t="n">
         <v>1</v>
       </c>
@@ -32554,7 +33664,11 @@
       </c>
       <c r="I963" t="inlineStr"/>
       <c r="J963" t="inlineStr"/>
-      <c r="K963" t="inlineStr"/>
+      <c r="K963" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L963" t="n">
         <v>1</v>
       </c>
@@ -32587,7 +33701,11 @@
       </c>
       <c r="I964" t="inlineStr"/>
       <c r="J964" t="inlineStr"/>
-      <c r="K964" t="inlineStr"/>
+      <c r="K964" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L964" t="n">
         <v>1</v>
       </c>
@@ -32620,7 +33738,11 @@
       </c>
       <c r="I965" t="inlineStr"/>
       <c r="J965" t="inlineStr"/>
-      <c r="K965" t="inlineStr"/>
+      <c r="K965" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L965" t="n">
         <v>1</v>
       </c>
@@ -32653,7 +33775,11 @@
       </c>
       <c r="I966" t="inlineStr"/>
       <c r="J966" t="inlineStr"/>
-      <c r="K966" t="inlineStr"/>
+      <c r="K966" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L966" t="n">
         <v>1</v>
       </c>
@@ -32686,7 +33812,11 @@
       </c>
       <c r="I967" t="inlineStr"/>
       <c r="J967" t="inlineStr"/>
-      <c r="K967" t="inlineStr"/>
+      <c r="K967" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L967" t="n">
         <v>1</v>
       </c>
@@ -32719,7 +33849,11 @@
       </c>
       <c r="I968" t="inlineStr"/>
       <c r="J968" t="inlineStr"/>
-      <c r="K968" t="inlineStr"/>
+      <c r="K968" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L968" t="n">
         <v>1</v>
       </c>
@@ -32752,7 +33886,11 @@
       </c>
       <c r="I969" t="inlineStr"/>
       <c r="J969" t="inlineStr"/>
-      <c r="K969" t="inlineStr"/>
+      <c r="K969" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L969" t="n">
         <v>1</v>
       </c>
@@ -32785,7 +33923,11 @@
       </c>
       <c r="I970" t="inlineStr"/>
       <c r="J970" t="inlineStr"/>
-      <c r="K970" t="inlineStr"/>
+      <c r="K970" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L970" t="n">
         <v>1</v>
       </c>
@@ -32818,7 +33960,11 @@
       </c>
       <c r="I971" t="inlineStr"/>
       <c r="J971" t="inlineStr"/>
-      <c r="K971" t="inlineStr"/>
+      <c r="K971" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L971" t="n">
         <v>1</v>
       </c>
@@ -32851,7 +33997,11 @@
       </c>
       <c r="I972" t="inlineStr"/>
       <c r="J972" t="inlineStr"/>
-      <c r="K972" t="inlineStr"/>
+      <c r="K972" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L972" t="n">
         <v>1</v>
       </c>
@@ -32884,7 +34034,11 @@
       </c>
       <c r="I973" t="inlineStr"/>
       <c r="J973" t="inlineStr"/>
-      <c r="K973" t="inlineStr"/>
+      <c r="K973" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L973" t="n">
         <v>1</v>
       </c>
@@ -32917,7 +34071,11 @@
       </c>
       <c r="I974" t="inlineStr"/>
       <c r="J974" t="inlineStr"/>
-      <c r="K974" t="inlineStr"/>
+      <c r="K974" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L974" t="n">
         <v>1</v>
       </c>
@@ -32950,7 +34108,11 @@
       </c>
       <c r="I975" t="inlineStr"/>
       <c r="J975" t="inlineStr"/>
-      <c r="K975" t="inlineStr"/>
+      <c r="K975" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L975" t="n">
         <v>1</v>
       </c>
@@ -32983,7 +34145,11 @@
       </c>
       <c r="I976" t="inlineStr"/>
       <c r="J976" t="inlineStr"/>
-      <c r="K976" t="inlineStr"/>
+      <c r="K976" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L976" t="n">
         <v>1</v>
       </c>
@@ -33016,7 +34182,11 @@
       </c>
       <c r="I977" t="inlineStr"/>
       <c r="J977" t="inlineStr"/>
-      <c r="K977" t="inlineStr"/>
+      <c r="K977" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L977" t="n">
         <v>1</v>
       </c>
@@ -33049,7 +34219,11 @@
       </c>
       <c r="I978" t="inlineStr"/>
       <c r="J978" t="inlineStr"/>
-      <c r="K978" t="inlineStr"/>
+      <c r="K978" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L978" t="n">
         <v>1</v>
       </c>
@@ -33082,7 +34256,11 @@
       </c>
       <c r="I979" t="inlineStr"/>
       <c r="J979" t="inlineStr"/>
-      <c r="K979" t="inlineStr"/>
+      <c r="K979" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L979" t="n">
         <v>1</v>
       </c>
@@ -33115,7 +34293,11 @@
       </c>
       <c r="I980" t="inlineStr"/>
       <c r="J980" t="inlineStr"/>
-      <c r="K980" t="inlineStr"/>
+      <c r="K980" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L980" t="n">
         <v>1</v>
       </c>
@@ -33148,7 +34330,11 @@
       </c>
       <c r="I981" t="inlineStr"/>
       <c r="J981" t="inlineStr"/>
-      <c r="K981" t="inlineStr"/>
+      <c r="K981" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L981" t="n">
         <v>1</v>
       </c>
@@ -33181,7 +34367,11 @@
       </c>
       <c r="I982" t="inlineStr"/>
       <c r="J982" t="inlineStr"/>
-      <c r="K982" t="inlineStr"/>
+      <c r="K982" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L982" t="n">
         <v>1</v>
       </c>
@@ -33214,7 +34404,11 @@
       </c>
       <c r="I983" t="inlineStr"/>
       <c r="J983" t="inlineStr"/>
-      <c r="K983" t="inlineStr"/>
+      <c r="K983" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L983" t="n">
         <v>1</v>
       </c>
@@ -33247,7 +34441,11 @@
       </c>
       <c r="I984" t="inlineStr"/>
       <c r="J984" t="inlineStr"/>
-      <c r="K984" t="inlineStr"/>
+      <c r="K984" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L984" t="n">
         <v>1</v>
       </c>
@@ -33280,7 +34478,11 @@
       </c>
       <c r="I985" t="inlineStr"/>
       <c r="J985" t="inlineStr"/>
-      <c r="K985" t="inlineStr"/>
+      <c r="K985" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L985" t="n">
         <v>1</v>
       </c>
@@ -33313,7 +34515,11 @@
       </c>
       <c r="I986" t="inlineStr"/>
       <c r="J986" t="inlineStr"/>
-      <c r="K986" t="inlineStr"/>
+      <c r="K986" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L986" t="n">
         <v>1</v>
       </c>
@@ -33346,7 +34552,11 @@
       </c>
       <c r="I987" t="inlineStr"/>
       <c r="J987" t="inlineStr"/>
-      <c r="K987" t="inlineStr"/>
+      <c r="K987" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L987" t="n">
         <v>1</v>
       </c>
@@ -33379,7 +34589,11 @@
       </c>
       <c r="I988" t="inlineStr"/>
       <c r="J988" t="inlineStr"/>
-      <c r="K988" t="inlineStr"/>
+      <c r="K988" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L988" t="n">
         <v>1</v>
       </c>
@@ -33412,7 +34626,11 @@
       </c>
       <c r="I989" t="inlineStr"/>
       <c r="J989" t="inlineStr"/>
-      <c r="K989" t="inlineStr"/>
+      <c r="K989" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L989" t="n">
         <v>1</v>
       </c>
@@ -33445,7 +34663,11 @@
       </c>
       <c r="I990" t="inlineStr"/>
       <c r="J990" t="inlineStr"/>
-      <c r="K990" t="inlineStr"/>
+      <c r="K990" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L990" t="n">
         <v>1</v>
       </c>
@@ -33478,7 +34700,11 @@
       </c>
       <c r="I991" t="inlineStr"/>
       <c r="J991" t="inlineStr"/>
-      <c r="K991" t="inlineStr"/>
+      <c r="K991" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L991" t="n">
         <v>1</v>
       </c>
@@ -33511,7 +34737,11 @@
       </c>
       <c r="I992" t="inlineStr"/>
       <c r="J992" t="inlineStr"/>
-      <c r="K992" t="inlineStr"/>
+      <c r="K992" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L992" t="n">
         <v>1</v>
       </c>
@@ -33544,7 +34774,11 @@
       </c>
       <c r="I993" t="inlineStr"/>
       <c r="J993" t="inlineStr"/>
-      <c r="K993" t="inlineStr"/>
+      <c r="K993" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L993" t="n">
         <v>1</v>
       </c>
@@ -33577,7 +34811,11 @@
       </c>
       <c r="I994" t="inlineStr"/>
       <c r="J994" t="inlineStr"/>
-      <c r="K994" t="inlineStr"/>
+      <c r="K994" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L994" t="n">
         <v>1</v>
       </c>
@@ -33610,7 +34848,11 @@
       </c>
       <c r="I995" t="inlineStr"/>
       <c r="J995" t="inlineStr"/>
-      <c r="K995" t="inlineStr"/>
+      <c r="K995" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L995" t="n">
         <v>1</v>
       </c>
@@ -33643,7 +34885,11 @@
       </c>
       <c r="I996" t="inlineStr"/>
       <c r="J996" t="inlineStr"/>
-      <c r="K996" t="inlineStr"/>
+      <c r="K996" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L996" t="n">
         <v>1</v>
       </c>
@@ -33676,7 +34922,11 @@
       </c>
       <c r="I997" t="inlineStr"/>
       <c r="J997" t="inlineStr"/>
-      <c r="K997" t="inlineStr"/>
+      <c r="K997" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L997" t="n">
         <v>1</v>
       </c>
@@ -33709,7 +34959,11 @@
       </c>
       <c r="I998" t="inlineStr"/>
       <c r="J998" t="inlineStr"/>
-      <c r="K998" t="inlineStr"/>
+      <c r="K998" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L998" t="n">
         <v>1</v>
       </c>
@@ -33742,7 +34996,11 @@
       </c>
       <c r="I999" t="inlineStr"/>
       <c r="J999" t="inlineStr"/>
-      <c r="K999" t="inlineStr"/>
+      <c r="K999" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L999" t="n">
         <v>1</v>
       </c>
@@ -33775,7 +35033,11 @@
       </c>
       <c r="I1000" t="inlineStr"/>
       <c r="J1000" t="inlineStr"/>
-      <c r="K1000" t="inlineStr"/>
+      <c r="K1000" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1000" t="n">
         <v>1</v>
       </c>
@@ -33808,7 +35070,11 @@
       </c>
       <c r="I1001" t="inlineStr"/>
       <c r="J1001" t="inlineStr"/>
-      <c r="K1001" t="inlineStr"/>
+      <c r="K1001" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1001" t="n">
         <v>1</v>
       </c>
@@ -33841,7 +35107,11 @@
       </c>
       <c r="I1002" t="inlineStr"/>
       <c r="J1002" t="inlineStr"/>
-      <c r="K1002" t="inlineStr"/>
+      <c r="K1002" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1002" t="n">
         <v>1</v>
       </c>
@@ -33874,7 +35144,11 @@
       </c>
       <c r="I1003" t="inlineStr"/>
       <c r="J1003" t="inlineStr"/>
-      <c r="K1003" t="inlineStr"/>
+      <c r="K1003" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1003" t="n">
         <v>1</v>
       </c>
@@ -33907,7 +35181,11 @@
       </c>
       <c r="I1004" t="inlineStr"/>
       <c r="J1004" t="inlineStr"/>
-      <c r="K1004" t="inlineStr"/>
+      <c r="K1004" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1004" t="n">
         <v>1</v>
       </c>
@@ -33940,7 +35218,11 @@
       </c>
       <c r="I1005" t="inlineStr"/>
       <c r="J1005" t="inlineStr"/>
-      <c r="K1005" t="inlineStr"/>
+      <c r="K1005" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1005" t="n">
         <v>1</v>
       </c>
@@ -33973,7 +35255,11 @@
       </c>
       <c r="I1006" t="inlineStr"/>
       <c r="J1006" t="inlineStr"/>
-      <c r="K1006" t="inlineStr"/>
+      <c r="K1006" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1006" t="n">
         <v>1</v>
       </c>
@@ -34006,7 +35292,11 @@
       </c>
       <c r="I1007" t="inlineStr"/>
       <c r="J1007" t="inlineStr"/>
-      <c r="K1007" t="inlineStr"/>
+      <c r="K1007" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1007" t="n">
         <v>1</v>
       </c>
@@ -34039,7 +35329,11 @@
       </c>
       <c r="I1008" t="inlineStr"/>
       <c r="J1008" t="inlineStr"/>
-      <c r="K1008" t="inlineStr"/>
+      <c r="K1008" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1008" t="n">
         <v>1</v>
       </c>
@@ -34068,15 +35362,15 @@
         <v>-11674.67180447001</v>
       </c>
       <c r="H1009" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1009" t="n">
-        <v>291900</v>
-      </c>
-      <c r="J1009" t="n">
-        <v>291900</v>
-      </c>
-      <c r="K1009" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I1009" t="inlineStr"/>
+      <c r="J1009" t="inlineStr"/>
+      <c r="K1009" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1009" t="n">
         <v>1</v>
       </c>
@@ -34105,17 +35399,13 @@
         <v>-11522.20470447001</v>
       </c>
       <c r="H1010" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1010" t="n">
-        <v>294000</v>
-      </c>
-      <c r="J1010" t="n">
-        <v>291900</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1010" t="inlineStr"/>
+      <c r="J1010" t="inlineStr"/>
       <c r="K1010" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L1010" t="n">
@@ -34149,12 +35439,10 @@
         <v>0</v>
       </c>
       <c r="I1011" t="inlineStr"/>
-      <c r="J1011" t="n">
-        <v>291900</v>
-      </c>
+      <c r="J1011" t="inlineStr"/>
       <c r="K1011" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L1011" t="n">
@@ -34189,7 +35477,11 @@
       </c>
       <c r="I1012" t="inlineStr"/>
       <c r="J1012" t="inlineStr"/>
-      <c r="K1012" t="inlineStr"/>
+      <c r="K1012" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1012" t="n">
         <v>1</v>
       </c>
@@ -34222,7 +35514,11 @@
       </c>
       <c r="I1013" t="inlineStr"/>
       <c r="J1013" t="inlineStr"/>
-      <c r="K1013" t="inlineStr"/>
+      <c r="K1013" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1013" t="n">
         <v>1</v>
       </c>
@@ -34255,7 +35551,11 @@
       </c>
       <c r="I1014" t="inlineStr"/>
       <c r="J1014" t="inlineStr"/>
-      <c r="K1014" t="inlineStr"/>
+      <c r="K1014" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1014" t="n">
         <v>1</v>
       </c>
@@ -34288,7 +35588,11 @@
       </c>
       <c r="I1015" t="inlineStr"/>
       <c r="J1015" t="inlineStr"/>
-      <c r="K1015" t="inlineStr"/>
+      <c r="K1015" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1015" t="n">
         <v>1</v>
       </c>
@@ -34317,11 +35621,17 @@
         <v>-11675.31220447001</v>
       </c>
       <c r="H1016" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1016" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1016" t="n">
+        <v>294400</v>
+      </c>
       <c r="J1016" t="inlineStr"/>
-      <c r="K1016" t="inlineStr"/>
+      <c r="K1016" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1016" t="n">
         <v>1</v>
       </c>
@@ -34350,11 +35660,17 @@
         <v>-11699.56730447001</v>
       </c>
       <c r="H1017" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1017" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1017" t="n">
+        <v>293900</v>
+      </c>
       <c r="J1017" t="inlineStr"/>
-      <c r="K1017" t="inlineStr"/>
+      <c r="K1017" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1017" t="n">
         <v>1</v>
       </c>
@@ -34383,11 +35699,17 @@
         <v>-11699.06130447001</v>
       </c>
       <c r="H1018" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1018" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1018" t="n">
+        <v>293700</v>
+      </c>
       <c r="J1018" t="inlineStr"/>
-      <c r="K1018" t="inlineStr"/>
+      <c r="K1018" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1018" t="n">
         <v>1</v>
       </c>
@@ -34416,11 +35738,17 @@
         <v>-11702.06130447001</v>
       </c>
       <c r="H1019" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1019" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1019" t="n">
+        <v>294700</v>
+      </c>
       <c r="J1019" t="inlineStr"/>
-      <c r="K1019" t="inlineStr"/>
+      <c r="K1019" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1019" t="n">
         <v>1</v>
       </c>
@@ -34449,11 +35777,17 @@
         <v>-11702.06130447001</v>
       </c>
       <c r="H1020" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1020" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1020" t="n">
+        <v>294600</v>
+      </c>
       <c r="J1020" t="inlineStr"/>
-      <c r="K1020" t="inlineStr"/>
+      <c r="K1020" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1020" t="n">
         <v>1</v>
       </c>
@@ -34482,11 +35816,17 @@
         <v>-11794.16130447001</v>
       </c>
       <c r="H1021" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1021" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1021" t="n">
+        <v>294600</v>
+      </c>
       <c r="J1021" t="inlineStr"/>
-      <c r="K1021" t="inlineStr"/>
+      <c r="K1021" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1021" t="n">
         <v>1</v>
       </c>
@@ -34523,7 +35863,7 @@
       <c r="J1022" t="inlineStr"/>
       <c r="K1022" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L1022" t="n">
@@ -35100,9 +36440,11 @@
         <v>-11557.41586245001</v>
       </c>
       <c r="H1037" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1037" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1037" t="n">
+        <v>296100</v>
+      </c>
       <c r="J1037" t="inlineStr"/>
       <c r="K1037" t="inlineStr">
         <is>
@@ -35137,9 +36479,11 @@
         <v>-11587.95546245001</v>
       </c>
       <c r="H1038" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1038" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1038" t="n">
+        <v>297300</v>
+      </c>
       <c r="J1038" t="inlineStr"/>
       <c r="K1038" t="inlineStr">
         <is>
@@ -35174,9 +36518,11 @@
         <v>-10783.04116179001</v>
       </c>
       <c r="H1039" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1039" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1039" t="n">
+        <v>296000</v>
+      </c>
       <c r="J1039" t="inlineStr"/>
       <c r="K1039" t="inlineStr">
         <is>
@@ -35396,16 +36742,18 @@
         <v>-10287.72933964001</v>
       </c>
       <c r="H1045" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1045" t="inlineStr"/>
       <c r="J1045" t="inlineStr"/>
       <c r="K1045" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L1045" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L1045" t="n">
+        <v>1</v>
+      </c>
       <c r="M1045" t="inlineStr"/>
     </row>
     <row r="1046">
@@ -35435,7 +36783,11 @@
       </c>
       <c r="I1046" t="inlineStr"/>
       <c r="J1046" t="inlineStr"/>
-      <c r="K1046" t="inlineStr"/>
+      <c r="K1046" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1046" t="n">
         <v>1</v>
       </c>
@@ -35464,11 +36816,15 @@
         <v>-10636.97513964001</v>
       </c>
       <c r="H1047" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1047" t="inlineStr"/>
       <c r="J1047" t="inlineStr"/>
-      <c r="K1047" t="inlineStr"/>
+      <c r="K1047" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1047" t="n">
         <v>1</v>
       </c>
@@ -35497,11 +36853,15 @@
         <v>-10756.12673964001</v>
       </c>
       <c r="H1048" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1048" t="inlineStr"/>
       <c r="J1048" t="inlineStr"/>
-      <c r="K1048" t="inlineStr"/>
+      <c r="K1048" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1048" t="n">
         <v>1</v>
       </c>
@@ -35530,11 +36890,15 @@
         <v>-10879.69973964001</v>
       </c>
       <c r="H1049" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1049" t="inlineStr"/>
       <c r="J1049" t="inlineStr"/>
-      <c r="K1049" t="inlineStr"/>
+      <c r="K1049" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1049" t="n">
         <v>1</v>
       </c>
@@ -35567,7 +36931,11 @@
       </c>
       <c r="I1050" t="inlineStr"/>
       <c r="J1050" t="inlineStr"/>
-      <c r="K1050" t="inlineStr"/>
+      <c r="K1050" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1050" t="n">
         <v>1</v>
       </c>
@@ -35600,7 +36968,11 @@
       </c>
       <c r="I1051" t="inlineStr"/>
       <c r="J1051" t="inlineStr"/>
-      <c r="K1051" t="inlineStr"/>
+      <c r="K1051" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1051" t="n">
         <v>1</v>
       </c>
@@ -35633,7 +37005,11 @@
       </c>
       <c r="I1052" t="inlineStr"/>
       <c r="J1052" t="inlineStr"/>
-      <c r="K1052" t="inlineStr"/>
+      <c r="K1052" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1052" t="n">
         <v>1</v>
       </c>
@@ -35662,11 +37038,15 @@
         <v>-10657.39078095001</v>
       </c>
       <c r="H1053" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1053" t="inlineStr"/>
       <c r="J1053" t="inlineStr"/>
-      <c r="K1053" t="inlineStr"/>
+      <c r="K1053" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1053" t="n">
         <v>1</v>
       </c>
@@ -35695,11 +37075,15 @@
         <v>-10670.97918095001</v>
       </c>
       <c r="H1054" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1054" t="inlineStr"/>
       <c r="J1054" t="inlineStr"/>
-      <c r="K1054" t="inlineStr"/>
+      <c r="K1054" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1054" t="n">
         <v>1</v>
       </c>
@@ -35732,7 +37116,11 @@
       </c>
       <c r="I1055" t="inlineStr"/>
       <c r="J1055" t="inlineStr"/>
-      <c r="K1055" t="inlineStr"/>
+      <c r="K1055" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1055" t="n">
         <v>1</v>
       </c>
@@ -35765,7 +37153,11 @@
       </c>
       <c r="I1056" t="inlineStr"/>
       <c r="J1056" t="inlineStr"/>
-      <c r="K1056" t="inlineStr"/>
+      <c r="K1056" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1056" t="n">
         <v>1</v>
       </c>
@@ -35798,7 +37190,11 @@
       </c>
       <c r="I1057" t="inlineStr"/>
       <c r="J1057" t="inlineStr"/>
-      <c r="K1057" t="inlineStr"/>
+      <c r="K1057" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1057" t="n">
         <v>1</v>
       </c>
@@ -35831,7 +37227,11 @@
       </c>
       <c r="I1058" t="inlineStr"/>
       <c r="J1058" t="inlineStr"/>
-      <c r="K1058" t="inlineStr"/>
+      <c r="K1058" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1058" t="n">
         <v>1</v>
       </c>
@@ -35864,7 +37264,11 @@
       </c>
       <c r="I1059" t="inlineStr"/>
       <c r="J1059" t="inlineStr"/>
-      <c r="K1059" t="inlineStr"/>
+      <c r="K1059" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1059" t="n">
         <v>1</v>
       </c>
@@ -35897,7 +37301,11 @@
       </c>
       <c r="I1060" t="inlineStr"/>
       <c r="J1060" t="inlineStr"/>
-      <c r="K1060" t="inlineStr"/>
+      <c r="K1060" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1060" t="n">
         <v>1</v>
       </c>
@@ -35930,7 +37338,11 @@
       </c>
       <c r="I1061" t="inlineStr"/>
       <c r="J1061" t="inlineStr"/>
-      <c r="K1061" t="inlineStr"/>
+      <c r="K1061" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1061" t="n">
         <v>1</v>
       </c>
@@ -35963,7 +37375,11 @@
       </c>
       <c r="I1062" t="inlineStr"/>
       <c r="J1062" t="inlineStr"/>
-      <c r="K1062" t="inlineStr"/>
+      <c r="K1062" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1062" t="n">
         <v>1</v>
       </c>
@@ -35992,11 +37408,15 @@
         <v>-10923.66425774001</v>
       </c>
       <c r="H1063" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1063" t="inlineStr"/>
       <c r="J1063" t="inlineStr"/>
-      <c r="K1063" t="inlineStr"/>
+      <c r="K1063" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1063" t="n">
         <v>1</v>
       </c>
@@ -36025,11 +37445,15 @@
         <v>-11000.59765774001</v>
       </c>
       <c r="H1064" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1064" t="inlineStr"/>
       <c r="J1064" t="inlineStr"/>
-      <c r="K1064" t="inlineStr"/>
+      <c r="K1064" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1064" t="n">
         <v>1</v>
       </c>
@@ -36058,11 +37482,15 @@
         <v>-11000.59765774001</v>
       </c>
       <c r="H1065" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1065" t="inlineStr"/>
       <c r="J1065" t="inlineStr"/>
-      <c r="K1065" t="inlineStr"/>
+      <c r="K1065" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1065" t="n">
         <v>1</v>
       </c>
@@ -36091,11 +37519,15 @@
         <v>-11000.59765774001</v>
       </c>
       <c r="H1066" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1066" t="inlineStr"/>
       <c r="J1066" t="inlineStr"/>
-      <c r="K1066" t="inlineStr"/>
+      <c r="K1066" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1066" t="n">
         <v>1</v>
       </c>
@@ -36124,11 +37556,15 @@
         <v>-11021.38885774001</v>
       </c>
       <c r="H1067" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1067" t="inlineStr"/>
       <c r="J1067" t="inlineStr"/>
-      <c r="K1067" t="inlineStr"/>
+      <c r="K1067" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1067" t="n">
         <v>1</v>
       </c>
@@ -36157,11 +37593,15 @@
         <v>-11036.47995774001</v>
       </c>
       <c r="H1068" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1068" t="inlineStr"/>
       <c r="J1068" t="inlineStr"/>
-      <c r="K1068" t="inlineStr"/>
+      <c r="K1068" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1068" t="n">
         <v>1</v>
       </c>
@@ -36190,11 +37630,15 @@
         <v>-11036.47995774001</v>
       </c>
       <c r="H1069" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1069" t="inlineStr"/>
       <c r="J1069" t="inlineStr"/>
-      <c r="K1069" t="inlineStr"/>
+      <c r="K1069" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1069" t="n">
         <v>1</v>
       </c>
@@ -36223,11 +37667,15 @@
         <v>-10999.69965774001</v>
       </c>
       <c r="H1070" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1070" t="inlineStr"/>
       <c r="J1070" t="inlineStr"/>
-      <c r="K1070" t="inlineStr"/>
+      <c r="K1070" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1070" t="n">
         <v>1</v>
       </c>
@@ -36256,11 +37704,15 @@
         <v>-11011.99345774001</v>
       </c>
       <c r="H1071" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1071" t="inlineStr"/>
       <c r="J1071" t="inlineStr"/>
-      <c r="K1071" t="inlineStr"/>
+      <c r="K1071" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1071" t="n">
         <v>1</v>
       </c>
@@ -36289,11 +37741,15 @@
         <v>-11180.33245774001</v>
       </c>
       <c r="H1072" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1072" t="inlineStr"/>
       <c r="J1072" t="inlineStr"/>
-      <c r="K1072" t="inlineStr"/>
+      <c r="K1072" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1072" t="n">
         <v>1</v>
       </c>
@@ -36322,11 +37778,15 @@
         <v>-11158.26985774001</v>
       </c>
       <c r="H1073" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1073" t="inlineStr"/>
       <c r="J1073" t="inlineStr"/>
-      <c r="K1073" t="inlineStr"/>
+      <c r="K1073" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1073" t="n">
         <v>1</v>
       </c>
@@ -36355,11 +37815,15 @@
         <v>-11228.55375774001</v>
       </c>
       <c r="H1074" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1074" t="inlineStr"/>
       <c r="J1074" t="inlineStr"/>
-      <c r="K1074" t="inlineStr"/>
+      <c r="K1074" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1074" t="n">
         <v>1</v>
       </c>
@@ -36388,11 +37852,15 @@
         <v>-11263.49075774001</v>
       </c>
       <c r="H1075" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1075" t="inlineStr"/>
       <c r="J1075" t="inlineStr"/>
-      <c r="K1075" t="inlineStr"/>
+      <c r="K1075" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1075" t="n">
         <v>1</v>
       </c>
@@ -36421,11 +37889,15 @@
         <v>-11304.73215774001</v>
       </c>
       <c r="H1076" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1076" t="inlineStr"/>
       <c r="J1076" t="inlineStr"/>
-      <c r="K1076" t="inlineStr"/>
+      <c r="K1076" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1076" t="n">
         <v>1</v>
       </c>
@@ -36454,11 +37926,15 @@
         <v>-11380.83555774001</v>
       </c>
       <c r="H1077" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1077" t="inlineStr"/>
       <c r="J1077" t="inlineStr"/>
-      <c r="K1077" t="inlineStr"/>
+      <c r="K1077" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1077" t="n">
         <v>1</v>
       </c>
@@ -36487,11 +37963,15 @@
         <v>-11460.35825774001</v>
       </c>
       <c r="H1078" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1078" t="inlineStr"/>
       <c r="J1078" t="inlineStr"/>
-      <c r="K1078" t="inlineStr"/>
+      <c r="K1078" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1078" t="n">
         <v>1</v>
       </c>
@@ -36520,11 +38000,15 @@
         <v>-11446.56525774001</v>
       </c>
       <c r="H1079" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1079" t="inlineStr"/>
       <c r="J1079" t="inlineStr"/>
-      <c r="K1079" t="inlineStr"/>
+      <c r="K1079" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1079" t="n">
         <v>1</v>
       </c>
@@ -36553,11 +38037,15 @@
         <v>-11495.17735774001</v>
       </c>
       <c r="H1080" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1080" t="inlineStr"/>
       <c r="J1080" t="inlineStr"/>
-      <c r="K1080" t="inlineStr"/>
+      <c r="K1080" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1080" t="n">
         <v>1</v>
       </c>
@@ -36586,11 +38074,15 @@
         <v>-11570.13465774001</v>
       </c>
       <c r="H1081" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1081" t="inlineStr"/>
       <c r="J1081" t="inlineStr"/>
-      <c r="K1081" t="inlineStr"/>
+      <c r="K1081" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1081" t="n">
         <v>1</v>
       </c>
@@ -36619,11 +38111,15 @@
         <v>-11465.49255774001</v>
       </c>
       <c r="H1082" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1082" t="inlineStr"/>
       <c r="J1082" t="inlineStr"/>
-      <c r="K1082" t="inlineStr"/>
+      <c r="K1082" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1082" t="n">
         <v>1</v>
       </c>
@@ -36652,11 +38148,15 @@
         <v>-11473.49335774001</v>
       </c>
       <c r="H1083" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1083" t="inlineStr"/>
       <c r="J1083" t="inlineStr"/>
-      <c r="K1083" t="inlineStr"/>
+      <c r="K1083" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1083" t="n">
         <v>1</v>
       </c>
@@ -36685,11 +38185,15 @@
         <v>-11473.17915774001</v>
       </c>
       <c r="H1084" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1084" t="inlineStr"/>
       <c r="J1084" t="inlineStr"/>
-      <c r="K1084" t="inlineStr"/>
+      <c r="K1084" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1084" t="n">
         <v>1</v>
       </c>
@@ -36718,11 +38222,15 @@
         <v>-11467.07435774001</v>
       </c>
       <c r="H1085" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1085" t="inlineStr"/>
       <c r="J1085" t="inlineStr"/>
-      <c r="K1085" t="inlineStr"/>
+      <c r="K1085" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1085" t="n">
         <v>1</v>
       </c>
@@ -36751,11 +38259,15 @@
         <v>-11421.61295774001</v>
       </c>
       <c r="H1086" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1086" t="inlineStr"/>
       <c r="J1086" t="inlineStr"/>
-      <c r="K1086" t="inlineStr"/>
+      <c r="K1086" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1086" t="n">
         <v>1</v>
       </c>
@@ -36784,11 +38296,15 @@
         <v>-11421.33305774001</v>
       </c>
       <c r="H1087" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1087" t="inlineStr"/>
       <c r="J1087" t="inlineStr"/>
-      <c r="K1087" t="inlineStr"/>
+      <c r="K1087" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1087" t="n">
         <v>1</v>
       </c>
@@ -36821,7 +38337,11 @@
       </c>
       <c r="I1088" t="inlineStr"/>
       <c r="J1088" t="inlineStr"/>
-      <c r="K1088" t="inlineStr"/>
+      <c r="K1088" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1088" t="n">
         <v>1</v>
       </c>
@@ -36854,7 +38374,11 @@
       </c>
       <c r="I1089" t="inlineStr"/>
       <c r="J1089" t="inlineStr"/>
-      <c r="K1089" t="inlineStr"/>
+      <c r="K1089" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1089" t="n">
         <v>1</v>
       </c>
@@ -36887,7 +38411,11 @@
       </c>
       <c r="I1090" t="inlineStr"/>
       <c r="J1090" t="inlineStr"/>
-      <c r="K1090" t="inlineStr"/>
+      <c r="K1090" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1090" t="n">
         <v>1</v>
       </c>
@@ -36920,7 +38448,11 @@
       </c>
       <c r="I1091" t="inlineStr"/>
       <c r="J1091" t="inlineStr"/>
-      <c r="K1091" t="inlineStr"/>
+      <c r="K1091" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1091" t="n">
         <v>1</v>
       </c>
@@ -36953,7 +38485,11 @@
       </c>
       <c r="I1092" t="inlineStr"/>
       <c r="J1092" t="inlineStr"/>
-      <c r="K1092" t="inlineStr"/>
+      <c r="K1092" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1092" t="n">
         <v>1</v>
       </c>
@@ -36986,7 +38522,11 @@
       </c>
       <c r="I1093" t="inlineStr"/>
       <c r="J1093" t="inlineStr"/>
-      <c r="K1093" t="inlineStr"/>
+      <c r="K1093" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1093" t="n">
         <v>1</v>
       </c>
@@ -37019,7 +38559,11 @@
       </c>
       <c r="I1094" t="inlineStr"/>
       <c r="J1094" t="inlineStr"/>
-      <c r="K1094" t="inlineStr"/>
+      <c r="K1094" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1094" t="n">
         <v>1</v>
       </c>
@@ -37048,15 +38592,13 @@
         <v>-11508.58555844001</v>
       </c>
       <c r="H1095" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1095" t="n">
-        <v>299400</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1095" t="inlineStr"/>
       <c r="J1095" t="inlineStr"/>
       <c r="K1095" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L1095" t="n">
@@ -37087,11 +38629,9 @@
         <v>-11503.96155844001</v>
       </c>
       <c r="H1096" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1096" t="n">
-        <v>298500</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1096" t="inlineStr"/>
       <c r="J1096" t="inlineStr"/>
       <c r="K1096" t="inlineStr">
         <is>
@@ -37126,11 +38666,9 @@
         <v>-11517.54715844001</v>
       </c>
       <c r="H1097" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1097" t="n">
-        <v>300500</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1097" t="inlineStr"/>
       <c r="J1097" t="inlineStr"/>
       <c r="K1097" t="inlineStr">
         <is>
@@ -37202,11 +38740,9 @@
         <v>-11464.79585844001</v>
       </c>
       <c r="H1099" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1099" t="n">
-        <v>300200</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1099" t="inlineStr"/>
       <c r="J1099" t="inlineStr"/>
       <c r="K1099" t="inlineStr">
         <is>
@@ -37241,11 +38777,9 @@
         <v>-11509.29075844001</v>
       </c>
       <c r="H1100" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1100" t="n">
-        <v>301800</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1100" t="inlineStr"/>
       <c r="J1100" t="inlineStr"/>
       <c r="K1100" t="inlineStr">
         <is>
@@ -37428,11 +38962,9 @@
         <v>-11533.46415844001</v>
       </c>
       <c r="H1105" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1105" t="n">
-        <v>300700</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1105" t="inlineStr"/>
       <c r="J1105" t="inlineStr"/>
       <c r="K1105" t="inlineStr">
         <is>
@@ -37467,11 +38999,9 @@
         <v>-11504.45015844001</v>
       </c>
       <c r="H1106" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1106" t="n">
-        <v>300500</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1106" t="inlineStr"/>
       <c r="J1106" t="inlineStr"/>
       <c r="K1106" t="inlineStr">
         <is>
@@ -37506,11 +39036,9 @@
         <v>-11480.39235844001</v>
       </c>
       <c r="H1107" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1107" t="n">
-        <v>301000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1107" t="inlineStr"/>
       <c r="J1107" t="inlineStr"/>
       <c r="K1107" t="inlineStr">
         <is>
@@ -37545,11 +39073,9 @@
         <v>-11475.21245844001</v>
       </c>
       <c r="H1108" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1108" t="n">
-        <v>301200</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1108" t="inlineStr"/>
       <c r="J1108" t="inlineStr"/>
       <c r="K1108" t="inlineStr">
         <is>
@@ -37584,11 +39110,9 @@
         <v>-11436.69955844001</v>
       </c>
       <c r="H1109" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1109" t="n">
-        <v>301400</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1109" t="inlineStr"/>
       <c r="J1109" t="inlineStr"/>
       <c r="K1109" t="inlineStr">
         <is>
@@ -37623,11 +39147,9 @@
         <v>-11339.46135844001</v>
       </c>
       <c r="H1110" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1110" t="n">
-        <v>301900</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1110" t="inlineStr"/>
       <c r="J1110" t="inlineStr"/>
       <c r="K1110" t="inlineStr">
         <is>
@@ -37662,11 +39184,9 @@
         <v>-11375.44035844001</v>
       </c>
       <c r="H1111" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1111" t="n">
-        <v>302500</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1111" t="inlineStr"/>
       <c r="J1111" t="inlineStr"/>
       <c r="K1111" t="inlineStr">
         <is>
@@ -37701,11 +39221,9 @@
         <v>-11375.44035844001</v>
       </c>
       <c r="H1112" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1112" t="n">
-        <v>302200</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1112" t="inlineStr"/>
       <c r="J1112" t="inlineStr"/>
       <c r="K1112" t="inlineStr">
         <is>
@@ -38073,16 +39591,18 @@
         <v>-9770.672515680015</v>
       </c>
       <c r="H1122" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1122" t="inlineStr"/>
       <c r="J1122" t="inlineStr"/>
       <c r="K1122" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L1122" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L1122" t="n">
+        <v>1</v>
+      </c>
       <c r="M1122" t="inlineStr"/>
     </row>
     <row r="1123">
@@ -38108,11 +39628,15 @@
         <v>-10008.64186551002</v>
       </c>
       <c r="H1123" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1123" t="inlineStr"/>
       <c r="J1123" t="inlineStr"/>
-      <c r="K1123" t="inlineStr"/>
+      <c r="K1123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1123" t="n">
         <v>1</v>
       </c>
@@ -38141,11 +39665,15 @@
         <v>-9262.313113520015</v>
       </c>
       <c r="H1124" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1124" t="inlineStr"/>
       <c r="J1124" t="inlineStr"/>
-      <c r="K1124" t="inlineStr"/>
+      <c r="K1124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1124" t="n">
         <v>1</v>
       </c>
@@ -38174,11 +39702,15 @@
         <v>-8736.203983980015</v>
       </c>
       <c r="H1125" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1125" t="inlineStr"/>
       <c r="J1125" t="inlineStr"/>
-      <c r="K1125" t="inlineStr"/>
+      <c r="K1125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1125" t="n">
         <v>1</v>
       </c>
@@ -38207,11 +39739,15 @@
         <v>-8332.062882710015</v>
       </c>
       <c r="H1126" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1126" t="inlineStr"/>
       <c r="J1126" t="inlineStr"/>
-      <c r="K1126" t="inlineStr"/>
+      <c r="K1126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1126" t="n">
         <v>1</v>
       </c>
@@ -38240,11 +39776,15 @@
         <v>-7651.096613520015</v>
       </c>
       <c r="H1127" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1127" t="inlineStr"/>
       <c r="J1127" t="inlineStr"/>
-      <c r="K1127" t="inlineStr"/>
+      <c r="K1127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1127" t="n">
         <v>1</v>
       </c>
@@ -38273,11 +39813,15 @@
         <v>-6801.875477700015</v>
       </c>
       <c r="H1128" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1128" t="inlineStr"/>
       <c r="J1128" t="inlineStr"/>
-      <c r="K1128" t="inlineStr"/>
+      <c r="K1128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1128" t="n">
         <v>1</v>
       </c>
@@ -38310,7 +39854,11 @@
       </c>
       <c r="I1129" t="inlineStr"/>
       <c r="J1129" t="inlineStr"/>
-      <c r="K1129" t="inlineStr"/>
+      <c r="K1129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1129" t="n">
         <v>1</v>
       </c>
@@ -38343,7 +39891,11 @@
       </c>
       <c r="I1130" t="inlineStr"/>
       <c r="J1130" t="inlineStr"/>
-      <c r="K1130" t="inlineStr"/>
+      <c r="K1130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1130" t="n">
         <v>1</v>
       </c>
@@ -38376,7 +39928,11 @@
       </c>
       <c r="I1131" t="inlineStr"/>
       <c r="J1131" t="inlineStr"/>
-      <c r="K1131" t="inlineStr"/>
+      <c r="K1131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1131" t="n">
         <v>1</v>
       </c>
@@ -38409,7 +39965,11 @@
       </c>
       <c r="I1132" t="inlineStr"/>
       <c r="J1132" t="inlineStr"/>
-      <c r="K1132" t="inlineStr"/>
+      <c r="K1132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1132" t="n">
         <v>1</v>
       </c>
@@ -38442,7 +40002,11 @@
       </c>
       <c r="I1133" t="inlineStr"/>
       <c r="J1133" t="inlineStr"/>
-      <c r="K1133" t="inlineStr"/>
+      <c r="K1133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1133" t="n">
         <v>1</v>
       </c>
@@ -38475,7 +40039,11 @@
       </c>
       <c r="I1134" t="inlineStr"/>
       <c r="J1134" t="inlineStr"/>
-      <c r="K1134" t="inlineStr"/>
+      <c r="K1134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1134" t="n">
         <v>1</v>
       </c>
@@ -38508,7 +40076,11 @@
       </c>
       <c r="I1135" t="inlineStr"/>
       <c r="J1135" t="inlineStr"/>
-      <c r="K1135" t="inlineStr"/>
+      <c r="K1135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1135" t="n">
         <v>1</v>
       </c>
@@ -38541,7 +40113,11 @@
       </c>
       <c r="I1136" t="inlineStr"/>
       <c r="J1136" t="inlineStr"/>
-      <c r="K1136" t="inlineStr"/>
+      <c r="K1136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1136" t="n">
         <v>1</v>
       </c>
@@ -38574,7 +40150,11 @@
       </c>
       <c r="I1137" t="inlineStr"/>
       <c r="J1137" t="inlineStr"/>
-      <c r="K1137" t="inlineStr"/>
+      <c r="K1137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1137" t="n">
         <v>1</v>
       </c>
@@ -38607,7 +40187,11 @@
       </c>
       <c r="I1138" t="inlineStr"/>
       <c r="J1138" t="inlineStr"/>
-      <c r="K1138" t="inlineStr"/>
+      <c r="K1138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1138" t="n">
         <v>1</v>
       </c>
@@ -38640,7 +40224,11 @@
       </c>
       <c r="I1139" t="inlineStr"/>
       <c r="J1139" t="inlineStr"/>
-      <c r="K1139" t="inlineStr"/>
+      <c r="K1139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1139" t="n">
         <v>1</v>
       </c>
@@ -38673,7 +40261,11 @@
       </c>
       <c r="I1140" t="inlineStr"/>
       <c r="J1140" t="inlineStr"/>
-      <c r="K1140" t="inlineStr"/>
+      <c r="K1140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1140" t="n">
         <v>1</v>
       </c>
@@ -38706,7 +40298,11 @@
       </c>
       <c r="I1141" t="inlineStr"/>
       <c r="J1141" t="inlineStr"/>
-      <c r="K1141" t="inlineStr"/>
+      <c r="K1141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1141" t="n">
         <v>1</v>
       </c>
@@ -38739,7 +40335,11 @@
       </c>
       <c r="I1142" t="inlineStr"/>
       <c r="J1142" t="inlineStr"/>
-      <c r="K1142" t="inlineStr"/>
+      <c r="K1142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1142" t="n">
         <v>1</v>
       </c>
@@ -38772,7 +40372,11 @@
       </c>
       <c r="I1143" t="inlineStr"/>
       <c r="J1143" t="inlineStr"/>
-      <c r="K1143" t="inlineStr"/>
+      <c r="K1143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1143" t="n">
         <v>1</v>
       </c>
@@ -38805,7 +40409,11 @@
       </c>
       <c r="I1144" t="inlineStr"/>
       <c r="J1144" t="inlineStr"/>
-      <c r="K1144" t="inlineStr"/>
+      <c r="K1144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1144" t="n">
         <v>1</v>
       </c>
@@ -38838,7 +40446,11 @@
       </c>
       <c r="I1145" t="inlineStr"/>
       <c r="J1145" t="inlineStr"/>
-      <c r="K1145" t="inlineStr"/>
+      <c r="K1145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1145" t="n">
         <v>1</v>
       </c>
@@ -38871,7 +40483,11 @@
       </c>
       <c r="I1146" t="inlineStr"/>
       <c r="J1146" t="inlineStr"/>
-      <c r="K1146" t="inlineStr"/>
+      <c r="K1146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1146" t="n">
         <v>1</v>
       </c>
@@ -38904,7 +40520,11 @@
       </c>
       <c r="I1147" t="inlineStr"/>
       <c r="J1147" t="inlineStr"/>
-      <c r="K1147" t="inlineStr"/>
+      <c r="K1147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1147" t="n">
         <v>1</v>
       </c>
@@ -38937,7 +40557,11 @@
       </c>
       <c r="I1148" t="inlineStr"/>
       <c r="J1148" t="inlineStr"/>
-      <c r="K1148" t="inlineStr"/>
+      <c r="K1148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1148" t="n">
         <v>1</v>
       </c>
@@ -38970,7 +40594,11 @@
       </c>
       <c r="I1149" t="inlineStr"/>
       <c r="J1149" t="inlineStr"/>
-      <c r="K1149" t="inlineStr"/>
+      <c r="K1149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1149" t="n">
         <v>1</v>
       </c>
@@ -39003,7 +40631,11 @@
       </c>
       <c r="I1150" t="inlineStr"/>
       <c r="J1150" t="inlineStr"/>
-      <c r="K1150" t="inlineStr"/>
+      <c r="K1150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1150" t="n">
         <v>1</v>
       </c>
@@ -39036,7 +40668,11 @@
       </c>
       <c r="I1151" t="inlineStr"/>
       <c r="J1151" t="inlineStr"/>
-      <c r="K1151" t="inlineStr"/>
+      <c r="K1151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1151" t="n">
         <v>1</v>
       </c>
@@ -39069,7 +40705,11 @@
       </c>
       <c r="I1152" t="inlineStr"/>
       <c r="J1152" t="inlineStr"/>
-      <c r="K1152" t="inlineStr"/>
+      <c r="K1152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1152" t="n">
         <v>1</v>
       </c>
@@ -39098,11 +40738,15 @@
         <v>-7144.679162230014</v>
       </c>
       <c r="H1153" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1153" t="inlineStr"/>
       <c r="J1153" t="inlineStr"/>
-      <c r="K1153" t="inlineStr"/>
+      <c r="K1153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1153" t="n">
         <v>1</v>
       </c>
@@ -39135,7 +40779,11 @@
       </c>
       <c r="I1154" t="inlineStr"/>
       <c r="J1154" t="inlineStr"/>
-      <c r="K1154" t="inlineStr"/>
+      <c r="K1154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1154" t="n">
         <v>1</v>
       </c>
@@ -39168,7 +40816,11 @@
       </c>
       <c r="I1155" t="inlineStr"/>
       <c r="J1155" t="inlineStr"/>
-      <c r="K1155" t="inlineStr"/>
+      <c r="K1155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1155" t="n">
         <v>1</v>
       </c>
@@ -39201,7 +40853,11 @@
       </c>
       <c r="I1156" t="inlineStr"/>
       <c r="J1156" t="inlineStr"/>
-      <c r="K1156" t="inlineStr"/>
+      <c r="K1156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1156" t="n">
         <v>1</v>
       </c>
@@ -39234,7 +40890,11 @@
       </c>
       <c r="I1157" t="inlineStr"/>
       <c r="J1157" t="inlineStr"/>
-      <c r="K1157" t="inlineStr"/>
+      <c r="K1157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1157" t="n">
         <v>1</v>
       </c>
@@ -39267,7 +40927,11 @@
       </c>
       <c r="I1158" t="inlineStr"/>
       <c r="J1158" t="inlineStr"/>
-      <c r="K1158" t="inlineStr"/>
+      <c r="K1158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1158" t="n">
         <v>1</v>
       </c>
@@ -39300,7 +40964,11 @@
       </c>
       <c r="I1159" t="inlineStr"/>
       <c r="J1159" t="inlineStr"/>
-      <c r="K1159" t="inlineStr"/>
+      <c r="K1159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1159" t="n">
         <v>1</v>
       </c>
@@ -39333,7 +41001,11 @@
       </c>
       <c r="I1160" t="inlineStr"/>
       <c r="J1160" t="inlineStr"/>
-      <c r="K1160" t="inlineStr"/>
+      <c r="K1160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1160" t="n">
         <v>1</v>
       </c>
@@ -39366,7 +41038,11 @@
       </c>
       <c r="I1161" t="inlineStr"/>
       <c r="J1161" t="inlineStr"/>
-      <c r="K1161" t="inlineStr"/>
+      <c r="K1161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1161" t="n">
         <v>1</v>
       </c>
@@ -39399,7 +41075,11 @@
       </c>
       <c r="I1162" t="inlineStr"/>
       <c r="J1162" t="inlineStr"/>
-      <c r="K1162" t="inlineStr"/>
+      <c r="K1162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1162" t="n">
         <v>1</v>
       </c>
@@ -39432,7 +41112,11 @@
       </c>
       <c r="I1163" t="inlineStr"/>
       <c r="J1163" t="inlineStr"/>
-      <c r="K1163" t="inlineStr"/>
+      <c r="K1163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1163" t="n">
         <v>1</v>
       </c>
@@ -39465,7 +41149,11 @@
       </c>
       <c r="I1164" t="inlineStr"/>
       <c r="J1164" t="inlineStr"/>
-      <c r="K1164" t="inlineStr"/>
+      <c r="K1164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1164" t="n">
         <v>1</v>
       </c>
@@ -39498,7 +41186,11 @@
       </c>
       <c r="I1165" t="inlineStr"/>
       <c r="J1165" t="inlineStr"/>
-      <c r="K1165" t="inlineStr"/>
+      <c r="K1165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1165" t="n">
         <v>1</v>
       </c>
@@ -39531,7 +41223,11 @@
       </c>
       <c r="I1166" t="inlineStr"/>
       <c r="J1166" t="inlineStr"/>
-      <c r="K1166" t="inlineStr"/>
+      <c r="K1166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1166" t="n">
         <v>1</v>
       </c>
@@ -39564,7 +41260,11 @@
       </c>
       <c r="I1167" t="inlineStr"/>
       <c r="J1167" t="inlineStr"/>
-      <c r="K1167" t="inlineStr"/>
+      <c r="K1167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1167" t="n">
         <v>1</v>
       </c>
@@ -39597,7 +41297,11 @@
       </c>
       <c r="I1168" t="inlineStr"/>
       <c r="J1168" t="inlineStr"/>
-      <c r="K1168" t="inlineStr"/>
+      <c r="K1168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1168" t="n">
         <v>1</v>
       </c>
@@ -39630,7 +41334,11 @@
       </c>
       <c r="I1169" t="inlineStr"/>
       <c r="J1169" t="inlineStr"/>
-      <c r="K1169" t="inlineStr"/>
+      <c r="K1169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1169" t="n">
         <v>1</v>
       </c>
@@ -39663,7 +41371,11 @@
       </c>
       <c r="I1170" t="inlineStr"/>
       <c r="J1170" t="inlineStr"/>
-      <c r="K1170" t="inlineStr"/>
+      <c r="K1170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1170" t="n">
         <v>1</v>
       </c>
@@ -39696,7 +41408,11 @@
       </c>
       <c r="I1171" t="inlineStr"/>
       <c r="J1171" t="inlineStr"/>
-      <c r="K1171" t="inlineStr"/>
+      <c r="K1171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1171" t="n">
         <v>1</v>
       </c>
@@ -39729,7 +41445,11 @@
       </c>
       <c r="I1172" t="inlineStr"/>
       <c r="J1172" t="inlineStr"/>
-      <c r="K1172" t="inlineStr"/>
+      <c r="K1172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1172" t="n">
         <v>1</v>
       </c>
@@ -39762,7 +41482,11 @@
       </c>
       <c r="I1173" t="inlineStr"/>
       <c r="J1173" t="inlineStr"/>
-      <c r="K1173" t="inlineStr"/>
+      <c r="K1173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1173" t="n">
         <v>1</v>
       </c>
@@ -39795,7 +41519,11 @@
       </c>
       <c r="I1174" t="inlineStr"/>
       <c r="J1174" t="inlineStr"/>
-      <c r="K1174" t="inlineStr"/>
+      <c r="K1174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1174" t="n">
         <v>1</v>
       </c>
@@ -39828,7 +41556,11 @@
       </c>
       <c r="I1175" t="inlineStr"/>
       <c r="J1175" t="inlineStr"/>
-      <c r="K1175" t="inlineStr"/>
+      <c r="K1175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1175" t="n">
         <v>1</v>
       </c>
@@ -39861,7 +41593,11 @@
       </c>
       <c r="I1176" t="inlineStr"/>
       <c r="J1176" t="inlineStr"/>
-      <c r="K1176" t="inlineStr"/>
+      <c r="K1176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1176" t="n">
         <v>1</v>
       </c>
@@ -39894,7 +41630,11 @@
       </c>
       <c r="I1177" t="inlineStr"/>
       <c r="J1177" t="inlineStr"/>
-      <c r="K1177" t="inlineStr"/>
+      <c r="K1177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1177" t="n">
         <v>1</v>
       </c>
@@ -39927,7 +41667,11 @@
       </c>
       <c r="I1178" t="inlineStr"/>
       <c r="J1178" t="inlineStr"/>
-      <c r="K1178" t="inlineStr"/>
+      <c r="K1178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1178" t="n">
         <v>1</v>
       </c>
@@ -39960,7 +41704,11 @@
       </c>
       <c r="I1179" t="inlineStr"/>
       <c r="J1179" t="inlineStr"/>
-      <c r="K1179" t="inlineStr"/>
+      <c r="K1179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1179" t="n">
         <v>1</v>
       </c>
@@ -39993,7 +41741,11 @@
       </c>
       <c r="I1180" t="inlineStr"/>
       <c r="J1180" t="inlineStr"/>
-      <c r="K1180" t="inlineStr"/>
+      <c r="K1180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1180" t="n">
         <v>1</v>
       </c>
@@ -40026,7 +41778,11 @@
       </c>
       <c r="I1181" t="inlineStr"/>
       <c r="J1181" t="inlineStr"/>
-      <c r="K1181" t="inlineStr"/>
+      <c r="K1181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1181" t="n">
         <v>1</v>
       </c>
@@ -40059,7 +41815,11 @@
       </c>
       <c r="I1182" t="inlineStr"/>
       <c r="J1182" t="inlineStr"/>
-      <c r="K1182" t="inlineStr"/>
+      <c r="K1182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1182" t="n">
         <v>1</v>
       </c>
@@ -40092,7 +41852,11 @@
       </c>
       <c r="I1183" t="inlineStr"/>
       <c r="J1183" t="inlineStr"/>
-      <c r="K1183" t="inlineStr"/>
+      <c r="K1183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1183" t="n">
         <v>1</v>
       </c>
@@ -40125,7 +41889,11 @@
       </c>
       <c r="I1184" t="inlineStr"/>
       <c r="J1184" t="inlineStr"/>
-      <c r="K1184" t="inlineStr"/>
+      <c r="K1184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1184" t="n">
         <v>1</v>
       </c>
@@ -40158,7 +41926,11 @@
       </c>
       <c r="I1185" t="inlineStr"/>
       <c r="J1185" t="inlineStr"/>
-      <c r="K1185" t="inlineStr"/>
+      <c r="K1185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1185" t="n">
         <v>1</v>
       </c>
@@ -40191,7 +41963,11 @@
       </c>
       <c r="I1186" t="inlineStr"/>
       <c r="J1186" t="inlineStr"/>
-      <c r="K1186" t="inlineStr"/>
+      <c r="K1186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1186" t="n">
         <v>1</v>
       </c>
@@ -40224,7 +42000,11 @@
       </c>
       <c r="I1187" t="inlineStr"/>
       <c r="J1187" t="inlineStr"/>
-      <c r="K1187" t="inlineStr"/>
+      <c r="K1187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1187" t="n">
         <v>1</v>
       </c>
@@ -40257,7 +42037,11 @@
       </c>
       <c r="I1188" t="inlineStr"/>
       <c r="J1188" t="inlineStr"/>
-      <c r="K1188" t="inlineStr"/>
+      <c r="K1188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1188" t="n">
         <v>1</v>
       </c>
@@ -40290,7 +42074,11 @@
       </c>
       <c r="I1189" t="inlineStr"/>
       <c r="J1189" t="inlineStr"/>
-      <c r="K1189" t="inlineStr"/>
+      <c r="K1189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1189" t="n">
         <v>1</v>
       </c>
@@ -40323,7 +42111,11 @@
       </c>
       <c r="I1190" t="inlineStr"/>
       <c r="J1190" t="inlineStr"/>
-      <c r="K1190" t="inlineStr"/>
+      <c r="K1190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1190" t="n">
         <v>1</v>
       </c>
@@ -40356,7 +42148,11 @@
       </c>
       <c r="I1191" t="inlineStr"/>
       <c r="J1191" t="inlineStr"/>
-      <c r="K1191" t="inlineStr"/>
+      <c r="K1191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1191" t="n">
         <v>1</v>
       </c>
@@ -40389,7 +42185,11 @@
       </c>
       <c r="I1192" t="inlineStr"/>
       <c r="J1192" t="inlineStr"/>
-      <c r="K1192" t="inlineStr"/>
+      <c r="K1192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1192" t="n">
         <v>1</v>
       </c>
@@ -40422,7 +42222,11 @@
       </c>
       <c r="I1193" t="inlineStr"/>
       <c r="J1193" t="inlineStr"/>
-      <c r="K1193" t="inlineStr"/>
+      <c r="K1193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1193" t="n">
         <v>1</v>
       </c>
@@ -40455,7 +42259,11 @@
       </c>
       <c r="I1194" t="inlineStr"/>
       <c r="J1194" t="inlineStr"/>
-      <c r="K1194" t="inlineStr"/>
+      <c r="K1194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1194" t="n">
         <v>1</v>
       </c>
@@ -40488,7 +42296,11 @@
       </c>
       <c r="I1195" t="inlineStr"/>
       <c r="J1195" t="inlineStr"/>
-      <c r="K1195" t="inlineStr"/>
+      <c r="K1195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1195" t="n">
         <v>1</v>
       </c>
@@ -40521,7 +42333,11 @@
       </c>
       <c r="I1196" t="inlineStr"/>
       <c r="J1196" t="inlineStr"/>
-      <c r="K1196" t="inlineStr"/>
+      <c r="K1196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1196" t="n">
         <v>1</v>
       </c>
@@ -40554,7 +42370,11 @@
       </c>
       <c r="I1197" t="inlineStr"/>
       <c r="J1197" t="inlineStr"/>
-      <c r="K1197" t="inlineStr"/>
+      <c r="K1197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1197" t="n">
         <v>1</v>
       </c>
@@ -40587,7 +42407,11 @@
       </c>
       <c r="I1198" t="inlineStr"/>
       <c r="J1198" t="inlineStr"/>
-      <c r="K1198" t="inlineStr"/>
+      <c r="K1198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1198" t="n">
         <v>1</v>
       </c>
@@ -40620,7 +42444,11 @@
       </c>
       <c r="I1199" t="inlineStr"/>
       <c r="J1199" t="inlineStr"/>
-      <c r="K1199" t="inlineStr"/>
+      <c r="K1199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1199" t="n">
         <v>1</v>
       </c>
@@ -40653,7 +42481,11 @@
       </c>
       <c r="I1200" t="inlineStr"/>
       <c r="J1200" t="inlineStr"/>
-      <c r="K1200" t="inlineStr"/>
+      <c r="K1200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1200" t="n">
         <v>1</v>
       </c>
@@ -40686,7 +42518,11 @@
       </c>
       <c r="I1201" t="inlineStr"/>
       <c r="J1201" t="inlineStr"/>
-      <c r="K1201" t="inlineStr"/>
+      <c r="K1201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1201" t="n">
         <v>1</v>
       </c>
@@ -40719,7 +42555,11 @@
       </c>
       <c r="I1202" t="inlineStr"/>
       <c r="J1202" t="inlineStr"/>
-      <c r="K1202" t="inlineStr"/>
+      <c r="K1202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1202" t="n">
         <v>1</v>
       </c>
@@ -40752,7 +42592,11 @@
       </c>
       <c r="I1203" t="inlineStr"/>
       <c r="J1203" t="inlineStr"/>
-      <c r="K1203" t="inlineStr"/>
+      <c r="K1203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1203" t="n">
         <v>1</v>
       </c>
@@ -40785,7 +42629,11 @@
       </c>
       <c r="I1204" t="inlineStr"/>
       <c r="J1204" t="inlineStr"/>
-      <c r="K1204" t="inlineStr"/>
+      <c r="K1204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1204" t="n">
         <v>1</v>
       </c>
@@ -40818,7 +42666,11 @@
       </c>
       <c r="I1205" t="inlineStr"/>
       <c r="J1205" t="inlineStr"/>
-      <c r="K1205" t="inlineStr"/>
+      <c r="K1205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1205" t="n">
         <v>1</v>
       </c>
@@ -40851,7 +42703,11 @@
       </c>
       <c r="I1206" t="inlineStr"/>
       <c r="J1206" t="inlineStr"/>
-      <c r="K1206" t="inlineStr"/>
+      <c r="K1206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1206" t="n">
         <v>1</v>
       </c>
@@ -40884,7 +42740,11 @@
       </c>
       <c r="I1207" t="inlineStr"/>
       <c r="J1207" t="inlineStr"/>
-      <c r="K1207" t="inlineStr"/>
+      <c r="K1207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1207" t="n">
         <v>1</v>
       </c>
@@ -40917,7 +42777,11 @@
       </c>
       <c r="I1208" t="inlineStr"/>
       <c r="J1208" t="inlineStr"/>
-      <c r="K1208" t="inlineStr"/>
+      <c r="K1208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1208" t="n">
         <v>1</v>
       </c>
@@ -40950,7 +42814,11 @@
       </c>
       <c r="I1209" t="inlineStr"/>
       <c r="J1209" t="inlineStr"/>
-      <c r="K1209" t="inlineStr"/>
+      <c r="K1209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1209" t="n">
         <v>1</v>
       </c>
@@ -40983,7 +42851,11 @@
       </c>
       <c r="I1210" t="inlineStr"/>
       <c r="J1210" t="inlineStr"/>
-      <c r="K1210" t="inlineStr"/>
+      <c r="K1210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1210" t="n">
         <v>1</v>
       </c>
@@ -41016,7 +42888,11 @@
       </c>
       <c r="I1211" t="inlineStr"/>
       <c r="J1211" t="inlineStr"/>
-      <c r="K1211" t="inlineStr"/>
+      <c r="K1211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1211" t="n">
         <v>1</v>
       </c>
@@ -41049,7 +42925,11 @@
       </c>
       <c r="I1212" t="inlineStr"/>
       <c r="J1212" t="inlineStr"/>
-      <c r="K1212" t="inlineStr"/>
+      <c r="K1212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1212" t="n">
         <v>1</v>
       </c>
@@ -41082,7 +42962,11 @@
       </c>
       <c r="I1213" t="inlineStr"/>
       <c r="J1213" t="inlineStr"/>
-      <c r="K1213" t="inlineStr"/>
+      <c r="K1213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1213" t="n">
         <v>1</v>
       </c>
@@ -41115,7 +42999,11 @@
       </c>
       <c r="I1214" t="inlineStr"/>
       <c r="J1214" t="inlineStr"/>
-      <c r="K1214" t="inlineStr"/>
+      <c r="K1214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1214" t="n">
         <v>1</v>
       </c>
@@ -41148,7 +43036,11 @@
       </c>
       <c r="I1215" t="inlineStr"/>
       <c r="J1215" t="inlineStr"/>
-      <c r="K1215" t="inlineStr"/>
+      <c r="K1215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1215" t="n">
         <v>1</v>
       </c>
@@ -41181,7 +43073,11 @@
       </c>
       <c r="I1216" t="inlineStr"/>
       <c r="J1216" t="inlineStr"/>
-      <c r="K1216" t="inlineStr"/>
+      <c r="K1216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1216" t="n">
         <v>1</v>
       </c>
@@ -41214,7 +43110,11 @@
       </c>
       <c r="I1217" t="inlineStr"/>
       <c r="J1217" t="inlineStr"/>
-      <c r="K1217" t="inlineStr"/>
+      <c r="K1217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1217" t="n">
         <v>1</v>
       </c>
@@ -41247,7 +43147,11 @@
       </c>
       <c r="I1218" t="inlineStr"/>
       <c r="J1218" t="inlineStr"/>
-      <c r="K1218" t="inlineStr"/>
+      <c r="K1218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1218" t="n">
         <v>1</v>
       </c>
@@ -41280,7 +43184,11 @@
       </c>
       <c r="I1219" t="inlineStr"/>
       <c r="J1219" t="inlineStr"/>
-      <c r="K1219" t="inlineStr"/>
+      <c r="K1219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1219" t="n">
         <v>1</v>
       </c>
@@ -41313,7 +43221,11 @@
       </c>
       <c r="I1220" t="inlineStr"/>
       <c r="J1220" t="inlineStr"/>
-      <c r="K1220" t="inlineStr"/>
+      <c r="K1220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1220" t="n">
         <v>1</v>
       </c>
@@ -41346,7 +43258,11 @@
       </c>
       <c r="I1221" t="inlineStr"/>
       <c r="J1221" t="inlineStr"/>
-      <c r="K1221" t="inlineStr"/>
+      <c r="K1221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1221" t="n">
         <v>1</v>
       </c>
@@ -41379,7 +43295,11 @@
       </c>
       <c r="I1222" t="inlineStr"/>
       <c r="J1222" t="inlineStr"/>
-      <c r="K1222" t="inlineStr"/>
+      <c r="K1222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1222" t="n">
         <v>1</v>
       </c>
@@ -41412,7 +43332,11 @@
       </c>
       <c r="I1223" t="inlineStr"/>
       <c r="J1223" t="inlineStr"/>
-      <c r="K1223" t="inlineStr"/>
+      <c r="K1223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1223" t="n">
         <v>1</v>
       </c>
@@ -41445,7 +43369,11 @@
       </c>
       <c r="I1224" t="inlineStr"/>
       <c r="J1224" t="inlineStr"/>
-      <c r="K1224" t="inlineStr"/>
+      <c r="K1224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1224" t="n">
         <v>1</v>
       </c>
@@ -41478,7 +43406,11 @@
       </c>
       <c r="I1225" t="inlineStr"/>
       <c r="J1225" t="inlineStr"/>
-      <c r="K1225" t="inlineStr"/>
+      <c r="K1225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1225" t="n">
         <v>1</v>
       </c>
@@ -41511,7 +43443,11 @@
       </c>
       <c r="I1226" t="inlineStr"/>
       <c r="J1226" t="inlineStr"/>
-      <c r="K1226" t="inlineStr"/>
+      <c r="K1226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1226" t="n">
         <v>1</v>
       </c>
@@ -41544,7 +43480,11 @@
       </c>
       <c r="I1227" t="inlineStr"/>
       <c r="J1227" t="inlineStr"/>
-      <c r="K1227" t="inlineStr"/>
+      <c r="K1227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1227" t="n">
         <v>1</v>
       </c>
@@ -41577,7 +43517,11 @@
       </c>
       <c r="I1228" t="inlineStr"/>
       <c r="J1228" t="inlineStr"/>
-      <c r="K1228" t="inlineStr"/>
+      <c r="K1228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1228" t="n">
         <v>1</v>
       </c>
@@ -41610,7 +43554,11 @@
       </c>
       <c r="I1229" t="inlineStr"/>
       <c r="J1229" t="inlineStr"/>
-      <c r="K1229" t="inlineStr"/>
+      <c r="K1229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1229" t="n">
         <v>1</v>
       </c>
@@ -41643,7 +43591,11 @@
       </c>
       <c r="I1230" t="inlineStr"/>
       <c r="J1230" t="inlineStr"/>
-      <c r="K1230" t="inlineStr"/>
+      <c r="K1230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1230" t="n">
         <v>1</v>
       </c>
@@ -41676,7 +43628,11 @@
       </c>
       <c r="I1231" t="inlineStr"/>
       <c r="J1231" t="inlineStr"/>
-      <c r="K1231" t="inlineStr"/>
+      <c r="K1231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1231" t="n">
         <v>1</v>
       </c>
@@ -41709,7 +43665,11 @@
       </c>
       <c r="I1232" t="inlineStr"/>
       <c r="J1232" t="inlineStr"/>
-      <c r="K1232" t="inlineStr"/>
+      <c r="K1232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1232" t="n">
         <v>1</v>
       </c>
@@ -41742,7 +43702,11 @@
       </c>
       <c r="I1233" t="inlineStr"/>
       <c r="J1233" t="inlineStr"/>
-      <c r="K1233" t="inlineStr"/>
+      <c r="K1233" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1233" t="n">
         <v>1</v>
       </c>
@@ -41775,7 +43739,11 @@
       </c>
       <c r="I1234" t="inlineStr"/>
       <c r="J1234" t="inlineStr"/>
-      <c r="K1234" t="inlineStr"/>
+      <c r="K1234" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1234" t="n">
         <v>1</v>
       </c>
@@ -41808,7 +43776,11 @@
       </c>
       <c r="I1235" t="inlineStr"/>
       <c r="J1235" t="inlineStr"/>
-      <c r="K1235" t="inlineStr"/>
+      <c r="K1235" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1235" t="n">
         <v>1</v>
       </c>
@@ -41841,7 +43813,11 @@
       </c>
       <c r="I1236" t="inlineStr"/>
       <c r="J1236" t="inlineStr"/>
-      <c r="K1236" t="inlineStr"/>
+      <c r="K1236" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1236" t="n">
         <v>1</v>
       </c>
@@ -41874,7 +43850,11 @@
       </c>
       <c r="I1237" t="inlineStr"/>
       <c r="J1237" t="inlineStr"/>
-      <c r="K1237" t="inlineStr"/>
+      <c r="K1237" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1237" t="n">
         <v>1</v>
       </c>
@@ -41907,7 +43887,11 @@
       </c>
       <c r="I1238" t="inlineStr"/>
       <c r="J1238" t="inlineStr"/>
-      <c r="K1238" t="inlineStr"/>
+      <c r="K1238" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1238" t="n">
         <v>1</v>
       </c>
@@ -41940,7 +43924,11 @@
       </c>
       <c r="I1239" t="inlineStr"/>
       <c r="J1239" t="inlineStr"/>
-      <c r="K1239" t="inlineStr"/>
+      <c r="K1239" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1239" t="n">
         <v>1</v>
       </c>
@@ -41973,7 +43961,11 @@
       </c>
       <c r="I1240" t="inlineStr"/>
       <c r="J1240" t="inlineStr"/>
-      <c r="K1240" t="inlineStr"/>
+      <c r="K1240" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1240" t="n">
         <v>1</v>
       </c>
@@ -42006,7 +43998,11 @@
       </c>
       <c r="I1241" t="inlineStr"/>
       <c r="J1241" t="inlineStr"/>
-      <c r="K1241" t="inlineStr"/>
+      <c r="K1241" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1241" t="n">
         <v>1</v>
       </c>
@@ -42039,7 +44035,11 @@
       </c>
       <c r="I1242" t="inlineStr"/>
       <c r="J1242" t="inlineStr"/>
-      <c r="K1242" t="inlineStr"/>
+      <c r="K1242" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1242" t="n">
         <v>1</v>
       </c>
@@ -42072,7 +44072,11 @@
       </c>
       <c r="I1243" t="inlineStr"/>
       <c r="J1243" t="inlineStr"/>
-      <c r="K1243" t="inlineStr"/>
+      <c r="K1243" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1243" t="n">
         <v>1</v>
       </c>
@@ -42105,7 +44109,11 @@
       </c>
       <c r="I1244" t="inlineStr"/>
       <c r="J1244" t="inlineStr"/>
-      <c r="K1244" t="inlineStr"/>
+      <c r="K1244" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1244" t="n">
         <v>1</v>
       </c>
@@ -42138,7 +44146,11 @@
       </c>
       <c r="I1245" t="inlineStr"/>
       <c r="J1245" t="inlineStr"/>
-      <c r="K1245" t="inlineStr"/>
+      <c r="K1245" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1245" t="n">
         <v>1</v>
       </c>
@@ -42171,7 +44183,11 @@
       </c>
       <c r="I1246" t="inlineStr"/>
       <c r="J1246" t="inlineStr"/>
-      <c r="K1246" t="inlineStr"/>
+      <c r="K1246" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1246" t="n">
         <v>1</v>
       </c>
@@ -42204,7 +44220,11 @@
       </c>
       <c r="I1247" t="inlineStr"/>
       <c r="J1247" t="inlineStr"/>
-      <c r="K1247" t="inlineStr"/>
+      <c r="K1247" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1247" t="n">
         <v>1</v>
       </c>
@@ -42237,7 +44257,11 @@
       </c>
       <c r="I1248" t="inlineStr"/>
       <c r="J1248" t="inlineStr"/>
-      <c r="K1248" t="inlineStr"/>
+      <c r="K1248" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1248" t="n">
         <v>1</v>
       </c>
@@ -42270,7 +44294,11 @@
       </c>
       <c r="I1249" t="inlineStr"/>
       <c r="J1249" t="inlineStr"/>
-      <c r="K1249" t="inlineStr"/>
+      <c r="K1249" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1249" t="n">
         <v>1</v>
       </c>
@@ -42303,7 +44331,11 @@
       </c>
       <c r="I1250" t="inlineStr"/>
       <c r="J1250" t="inlineStr"/>
-      <c r="K1250" t="inlineStr"/>
+      <c r="K1250" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1250" t="n">
         <v>1</v>
       </c>
@@ -42336,7 +44368,11 @@
       </c>
       <c r="I1251" t="inlineStr"/>
       <c r="J1251" t="inlineStr"/>
-      <c r="K1251" t="inlineStr"/>
+      <c r="K1251" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1251" t="n">
         <v>1</v>
       </c>
@@ -42369,7 +44405,11 @@
       </c>
       <c r="I1252" t="inlineStr"/>
       <c r="J1252" t="inlineStr"/>
-      <c r="K1252" t="inlineStr"/>
+      <c r="K1252" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1252" t="n">
         <v>1</v>
       </c>
@@ -42402,7 +44442,11 @@
       </c>
       <c r="I1253" t="inlineStr"/>
       <c r="J1253" t="inlineStr"/>
-      <c r="K1253" t="inlineStr"/>
+      <c r="K1253" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1253" t="n">
         <v>1</v>
       </c>
@@ -42435,7 +44479,11 @@
       </c>
       <c r="I1254" t="inlineStr"/>
       <c r="J1254" t="inlineStr"/>
-      <c r="K1254" t="inlineStr"/>
+      <c r="K1254" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1254" t="n">
         <v>1</v>
       </c>
@@ -42468,7 +44516,11 @@
       </c>
       <c r="I1255" t="inlineStr"/>
       <c r="J1255" t="inlineStr"/>
-      <c r="K1255" t="inlineStr"/>
+      <c r="K1255" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1255" t="n">
         <v>1</v>
       </c>
@@ -42501,7 +44553,11 @@
       </c>
       <c r="I1256" t="inlineStr"/>
       <c r="J1256" t="inlineStr"/>
-      <c r="K1256" t="inlineStr"/>
+      <c r="K1256" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1256" t="n">
         <v>1</v>
       </c>
@@ -42534,7 +44590,11 @@
       </c>
       <c r="I1257" t="inlineStr"/>
       <c r="J1257" t="inlineStr"/>
-      <c r="K1257" t="inlineStr"/>
+      <c r="K1257" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1257" t="n">
         <v>1</v>
       </c>
@@ -42567,7 +44627,11 @@
       </c>
       <c r="I1258" t="inlineStr"/>
       <c r="J1258" t="inlineStr"/>
-      <c r="K1258" t="inlineStr"/>
+      <c r="K1258" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1258" t="n">
         <v>1</v>
       </c>
@@ -42600,7 +44664,11 @@
       </c>
       <c r="I1259" t="inlineStr"/>
       <c r="J1259" t="inlineStr"/>
-      <c r="K1259" t="inlineStr"/>
+      <c r="K1259" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1259" t="n">
         <v>1</v>
       </c>
@@ -42633,7 +44701,11 @@
       </c>
       <c r="I1260" t="inlineStr"/>
       <c r="J1260" t="inlineStr"/>
-      <c r="K1260" t="inlineStr"/>
+      <c r="K1260" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1260" t="n">
         <v>1</v>
       </c>
@@ -42666,7 +44738,11 @@
       </c>
       <c r="I1261" t="inlineStr"/>
       <c r="J1261" t="inlineStr"/>
-      <c r="K1261" t="inlineStr"/>
+      <c r="K1261" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1261" t="n">
         <v>1</v>
       </c>
@@ -42699,7 +44775,11 @@
       </c>
       <c r="I1262" t="inlineStr"/>
       <c r="J1262" t="inlineStr"/>
-      <c r="K1262" t="inlineStr"/>
+      <c r="K1262" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1262" t="n">
         <v>1</v>
       </c>
@@ -42732,7 +44812,11 @@
       </c>
       <c r="I1263" t="inlineStr"/>
       <c r="J1263" t="inlineStr"/>
-      <c r="K1263" t="inlineStr"/>
+      <c r="K1263" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1263" t="n">
         <v>1</v>
       </c>
@@ -42765,7 +44849,11 @@
       </c>
       <c r="I1264" t="inlineStr"/>
       <c r="J1264" t="inlineStr"/>
-      <c r="K1264" t="inlineStr"/>
+      <c r="K1264" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1264" t="n">
         <v>1</v>
       </c>
@@ -42798,7 +44886,11 @@
       </c>
       <c r="I1265" t="inlineStr"/>
       <c r="J1265" t="inlineStr"/>
-      <c r="K1265" t="inlineStr"/>
+      <c r="K1265" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1265" t="n">
         <v>1</v>
       </c>
@@ -42831,7 +44923,11 @@
       </c>
       <c r="I1266" t="inlineStr"/>
       <c r="J1266" t="inlineStr"/>
-      <c r="K1266" t="inlineStr"/>
+      <c r="K1266" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1266" t="n">
         <v>1</v>
       </c>
@@ -42864,7 +44960,11 @@
       </c>
       <c r="I1267" t="inlineStr"/>
       <c r="J1267" t="inlineStr"/>
-      <c r="K1267" t="inlineStr"/>
+      <c r="K1267" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1267" t="n">
         <v>1</v>
       </c>
@@ -42897,7 +44997,11 @@
       </c>
       <c r="I1268" t="inlineStr"/>
       <c r="J1268" t="inlineStr"/>
-      <c r="K1268" t="inlineStr"/>
+      <c r="K1268" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1268" t="n">
         <v>1</v>
       </c>
@@ -42926,14 +45030,16 @@
         <v>-6186.960793470018</v>
       </c>
       <c r="H1269" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1269" t="inlineStr"/>
       <c r="J1269" t="inlineStr"/>
-      <c r="K1269" t="inlineStr"/>
-      <c r="L1269" t="n">
-        <v>1</v>
-      </c>
+      <c r="K1269" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L1269" t="inlineStr"/>
       <c r="M1269" t="inlineStr"/>
     </row>
     <row r="1270">
@@ -42959,7 +45065,7 @@
         <v>-6432.714193470018</v>
       </c>
       <c r="H1270" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1270" t="inlineStr"/>
       <c r="J1270" t="inlineStr"/>
@@ -42992,7 +45098,7 @@
         <v>-6410.884193470018</v>
       </c>
       <c r="H1271" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1271" t="inlineStr"/>
       <c r="J1271" t="inlineStr"/>
@@ -43058,7 +45164,7 @@
         <v>-6712.028791460018</v>
       </c>
       <c r="H1273" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1273" t="inlineStr"/>
       <c r="J1273" t="inlineStr"/>
@@ -43091,7 +45197,7 @@
         <v>-7190.538791460018</v>
       </c>
       <c r="H1274" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1274" t="inlineStr"/>
       <c r="J1274" t="inlineStr"/>
@@ -43124,7 +45230,7 @@
         <v>-7331.777991460018</v>
       </c>
       <c r="H1275" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1275" t="inlineStr"/>
       <c r="J1275" t="inlineStr"/>
@@ -43157,7 +45263,7 @@
         <v>-7539.995111250018</v>
       </c>
       <c r="H1276" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1276" t="inlineStr"/>
       <c r="J1276" t="inlineStr"/>
@@ -43190,7 +45296,7 @@
         <v>-7864.388911250017</v>
       </c>
       <c r="H1277" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1277" t="inlineStr"/>
       <c r="J1277" t="inlineStr"/>
@@ -43223,7 +45329,7 @@
         <v>-7796.901211250018</v>
       </c>
       <c r="H1278" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1278" t="inlineStr"/>
       <c r="J1278" t="inlineStr"/>
